--- a/Experiment/Orders_PILOT/PAR01_RUN08.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN08.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24424"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\Desktop\3DFaces\Scan Orders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB9E6B2-06EA-434B-84FC-9B118E9AA9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{7EB9E6B2-06EA-434B-84FC-9B118E9AA9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD26E346-3FED-47A2-A0A0-9FADFFFC2A4E}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12420" windowWidth="29040" windowHeight="15840" xr2:uid="{07BF48E2-6ED9-4E46-8EF2-A48808502AF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="57">
   <si>
     <t>Trial</t>
   </si>
@@ -60,152 +60,158 @@
     <t>Pseudo</t>
   </si>
   <si>
+    <t>Face7_R.jpg</t>
+  </si>
+  <si>
+    <t>Face7_L.jpg</t>
+  </si>
+  <si>
+    <t>Face21_R.jpg</t>
+  </si>
+  <si>
+    <t>Face21_L.jpg</t>
+  </si>
+  <si>
+    <t>Face6_R.jpg</t>
+  </si>
+  <si>
+    <t>Face6_L.jpg</t>
+  </si>
+  <si>
+    <t>Face13_R.jpg</t>
+  </si>
+  <si>
+    <t>Face13_L.jpg</t>
+  </si>
+  <si>
+    <t>Face22_R.jpg</t>
+  </si>
+  <si>
+    <t>Face22_L.jpg</t>
+  </si>
+  <si>
+    <t>Face12_R.jpg</t>
+  </si>
+  <si>
+    <t>Face12_L.jpg</t>
+  </si>
+  <si>
+    <t>Face18_R.jpg</t>
+  </si>
+  <si>
+    <t>Face18_L.jpg</t>
+  </si>
+  <si>
+    <t>Face8_R.jpg</t>
+  </si>
+  <si>
+    <t>Face8_L.jpg</t>
+  </si>
+  <si>
+    <t>Face19_R.jpg</t>
+  </si>
+  <si>
+    <t>Face19_L.jpg</t>
+  </si>
+  <si>
+    <t>Face23_R.jpg</t>
+  </si>
+  <si>
+    <t>Face23_L.jpg</t>
+  </si>
+  <si>
+    <t>Face10_R.jpg</t>
+  </si>
+  <si>
+    <t>Face10_L.jpg</t>
+  </si>
+  <si>
+    <t>Face4_R.jpg</t>
+  </si>
+  <si>
+    <t>Face4_L.jpg</t>
+  </si>
+  <si>
+    <t>Face5_R.jpg</t>
+  </si>
+  <si>
+    <t>Face5_L.jpg</t>
+  </si>
+  <si>
+    <t>Face20_R.jpg</t>
+  </si>
+  <si>
+    <t>Face20_L.jpg</t>
+  </si>
+  <si>
+    <t>Face16_R.jpg</t>
+  </si>
+  <si>
+    <t>Face16_L.jpg</t>
+  </si>
+  <si>
+    <t>Face15_R.jpg</t>
+  </si>
+  <si>
+    <t>Face15_L.jpg</t>
+  </si>
+  <si>
+    <t>Face3_R.jpg</t>
+  </si>
+  <si>
+    <t>Face3_L.jpg</t>
+  </si>
+  <si>
+    <t>Face17_R.jpg</t>
+  </si>
+  <si>
+    <t>Face17_L.jpg</t>
+  </si>
+  <si>
+    <t>Face11_R.jpg</t>
+  </si>
+  <si>
+    <t>Face11_L.jpg</t>
+  </si>
+  <si>
+    <t>Face9_R.jpg</t>
+  </si>
+  <si>
+    <t>Face9_L.jpg</t>
+  </si>
+  <si>
+    <t>Face2_R.jpg</t>
+  </si>
+  <si>
+    <t>Face2_L.jpg</t>
+  </si>
+  <si>
+    <t>Face14_R.jpg</t>
+  </si>
+  <si>
+    <t>Face14_L.jpg</t>
+  </si>
+  <si>
+    <t>Face1_R.jpg</t>
+  </si>
+  <si>
+    <t>Face1_L.jpg</t>
+  </si>
+  <si>
     <t>2D</t>
   </si>
   <si>
+    <t>MonocL</t>
+  </si>
+  <si>
     <t>3D</t>
-  </si>
-  <si>
-    <t>MonocL</t>
-  </si>
-  <si>
-    <t>Face7_L.jpg</t>
-  </si>
-  <si>
-    <t>Face21_L.jpg</t>
-  </si>
-  <si>
-    <t>Face6_L.jpg</t>
-  </si>
-  <si>
-    <t>Face13_L.jpg</t>
-  </si>
-  <si>
-    <t>Face22_L.jpg</t>
-  </si>
-  <si>
-    <t>Face12_L.jpg</t>
-  </si>
-  <si>
-    <t>Face18_L.jpg</t>
-  </si>
-  <si>
-    <t>Face8_L.jpg</t>
-  </si>
-  <si>
-    <t>Face19_L.jpg</t>
-  </si>
-  <si>
-    <t>Face10_L.jpg</t>
-  </si>
-  <si>
-    <t>Face4_L.jpg</t>
-  </si>
-  <si>
-    <t>Face5_L.jpg</t>
-  </si>
-  <si>
-    <t>Face20_L.jpg</t>
-  </si>
-  <si>
-    <t>Face16_L.jpg</t>
-  </si>
-  <si>
-    <t>Face15_L.jpg</t>
-  </si>
-  <si>
-    <t>Face3_L.jpg</t>
-  </si>
-  <si>
-    <t>Face17_L.jpg</t>
-  </si>
-  <si>
-    <t>Face11_L.jpg</t>
-  </si>
-  <si>
-    <t>Face9_L.jpg</t>
-  </si>
-  <si>
-    <t>Face2_L.jpg</t>
-  </si>
-  <si>
-    <t>Face14_L.jpg</t>
-  </si>
-  <si>
-    <t>Face1_L.jpg</t>
-  </si>
-  <si>
-    <t>Face7_R.jpg</t>
-  </si>
-  <si>
-    <t>Face21_R.jpg</t>
-  </si>
-  <si>
-    <t>Face6_R.jpg</t>
-  </si>
-  <si>
-    <t>Face13_R.jpg</t>
-  </si>
-  <si>
-    <t>Face22_R.jpg</t>
-  </si>
-  <si>
-    <t>Face12_R.jpg</t>
-  </si>
-  <si>
-    <t>Face18_R.jpg</t>
-  </si>
-  <si>
-    <t>Face8_R.jpg</t>
-  </si>
-  <si>
-    <t>Face19_R.jpg</t>
-  </si>
-  <si>
-    <t>Face10_R.jpg</t>
-  </si>
-  <si>
-    <t>Face4_R.jpg</t>
-  </si>
-  <si>
-    <t>Face5_R.jpg</t>
-  </si>
-  <si>
-    <t>Face20_R.jpg</t>
-  </si>
-  <si>
-    <t>Face16_R.jpg</t>
-  </si>
-  <si>
-    <t>Face15_R.jpg</t>
-  </si>
-  <si>
-    <t>Face3_R.jpg</t>
-  </si>
-  <si>
-    <t>Face17_R.jpg</t>
-  </si>
-  <si>
-    <t>Face11_R.jpg</t>
-  </si>
-  <si>
-    <t>Face9_R.jpg</t>
-  </si>
-  <si>
-    <t>Face2_R.jpg</t>
-  </si>
-  <si>
-    <t>Face14_R.jpg</t>
-  </si>
-  <si>
-    <t>Face1_R.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,24 +570,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D52182-6637-46A4-90D9-371716FEC978}">
-  <dimension ref="A1:Q194"/>
+  <dimension ref="A1:Q202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K145" sqref="K145"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="15" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>0</v>
       </c>
@@ -612,7 +618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>1</v>
       </c>
@@ -623,10 +629,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -639,7 +645,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>1</v>
       </c>
@@ -650,10 +656,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -666,7 +672,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>1</v>
       </c>
@@ -677,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -693,7 +699,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>1</v>
       </c>
@@ -704,10 +710,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -720,7 +726,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>1</v>
       </c>
@@ -731,10 +737,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -747,7 +753,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>1</v>
       </c>
@@ -758,10 +764,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -774,7 +780,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>1</v>
       </c>
@@ -785,10 +791,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -801,7 +807,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>1</v>
       </c>
@@ -812,10 +818,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -828,7 +834,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>1</v>
       </c>
@@ -839,10 +845,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -855,7 +861,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>1</v>
       </c>
@@ -866,10 +872,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -882,7 +888,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>1</v>
       </c>
@@ -893,10 +899,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -909,7 +915,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>1</v>
       </c>
@@ -920,10 +926,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -936,7 +942,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>1</v>
       </c>
@@ -947,10 +953,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -963,7 +969,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>1</v>
       </c>
@@ -974,10 +980,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -990,7 +996,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1001,13 +1007,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1017,7 +1023,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1028,13 +1034,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1044,7 +1050,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1055,10 +1061,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1071,7 +1077,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1082,10 +1088,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1098,7 +1104,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1109,10 +1115,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1125,7 +1131,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1136,10 +1142,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1152,7 +1158,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1163,10 +1169,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1179,7 +1185,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1190,10 +1196,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1206,7 +1212,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1217,10 +1223,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1233,58 +1239,59 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1296,24 +1303,24 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="1"/>
@@ -1322,24 +1329,24 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="1"/>
@@ -1348,21 +1355,21 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -1374,21 +1381,21 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1400,12 +1407,12 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
@@ -1426,21 +1433,21 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1452,21 +1459,21 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -1478,21 +1485,21 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -1504,21 +1511,21 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -1530,21 +1537,21 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -1556,21 +1563,21 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -1582,21 +1589,21 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -1608,21 +1615,21 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -1634,21 +1641,21 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -1660,21 +1667,21 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -1686,21 +1693,21 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -1712,21 +1719,21 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17">
       <c r="A45">
         <v>2</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -1738,21 +1745,21 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17">
       <c r="A46">
         <v>2</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -1764,21 +1771,21 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17">
       <c r="A47">
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -1790,21 +1797,21 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17">
       <c r="A48">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -1816,21 +1823,21 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -1842,74 +1849,92 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17">
       <c r="A50">
-        <v>0</v>
-      </c>
-      <c r="B50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>3</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="3">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>3</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="C52" s="3">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53">
         <v>3</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>3</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -1921,346 +1946,353 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17">
       <c r="A58">
         <v>3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17">
       <c r="A59">
         <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17">
       <c r="A60">
         <v>3</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17">
       <c r="A61">
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17">
       <c r="A62">
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17">
       <c r="A63">
         <v>3</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17">
       <c r="A64">
         <v>3</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>3</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>3</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>3</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>3</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>3</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E72" s="1"/>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74">
-        <v>0</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C74" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
@@ -2268,1221 +2300,1206 @@
       <c r="D75" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77">
-        <v>4</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C77" s="3">
-        <v>1</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>4</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>4</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>4</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>4</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>4</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>4</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>4</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>4</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>4</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>4</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>4</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F91" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>4</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>4</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>4</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>4</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>4</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C97" s="3">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="3">
-        <v>1</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>0</v>
-      </c>
-      <c r="B98" s="1" t="s">
+      <c r="E100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C98" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>5</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="3">
-        <v>1</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>5</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="3">
-        <v>1</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>5</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="3">
-        <v>1</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>5</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C102" s="3">
-        <v>1</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>5</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C103" s="3">
         <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>5</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C104" s="3">
         <v>1</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F104" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>5</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>5</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>5</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>5</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>5</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>5</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>5</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F112" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>5</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C113" s="3">
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>5</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>5</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>5</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F116" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>5</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>5</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>5</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C119" s="3">
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>5</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>5</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C121" s="3">
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6">
       <c r="A122">
-        <v>0</v>
-      </c>
-      <c r="B122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C122" s="3">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C123" s="3">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C124" s="3">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>5</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C125" s="3">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C126" s="3">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C122" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>6</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" s="3">
-        <v>1</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F123" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>6</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" s="3">
-        <v>1</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F124" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>6</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125" s="3">
-        <v>1</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F125" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>6</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" s="3">
-        <v>1</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F126" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>6</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="C127" s="3">
-        <v>1</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F127" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>6</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>6</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C129" s="3">
         <v>1</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F129" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>6</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C130" s="3">
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>6</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C131" s="3">
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>6</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F132" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>6</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>6</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>6</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C135" s="3">
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>6</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>6</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
@@ -3491,275 +3508,284 @@
         <v>29</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>6</v>
       </c>
       <c r="B138" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C138" s="3">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C138" s="3">
-        <v>1</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E138" s="1" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>6</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>6</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>6</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>6</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>6</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>6</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C144" s="3">
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>6</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>6</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C146" s="3">
+        <v>1</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F145" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>0</v>
-      </c>
-      <c r="B146" s="1" t="s">
+      <c r="E146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
         <v>6</v>
       </c>
-      <c r="C146" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>7</v>
-      </c>
       <c r="B147" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C147" s="3">
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>6</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C148" s="3">
+        <v>1</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E147" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F147" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>7</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C148" s="3">
-        <v>1</v>
-      </c>
-      <c r="D148" s="1" t="s">
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>6</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C149" s="3">
+        <v>1</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F148" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>7</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C149" s="3">
-        <v>1</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E149" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6">
       <c r="A150">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C150" s="3">
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6">
       <c r="A151">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C151" s="3">
         <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>16</v>
@@ -3768,799 +3794,948 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6">
       <c r="A152">
-        <v>7</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C152" s="3">
-        <v>1</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E152" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>7</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" s="3">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>7</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="3">
+        <v>1</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>7</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="3">
+        <v>1</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>7</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>7</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>7</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F152" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <v>7</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153" s="3">
-        <v>1</v>
-      </c>
-      <c r="D153" s="1" t="s">
+      <c r="E160" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E153" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F153" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <v>7</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C154" s="3">
-        <v>1</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E154" s="1" t="s">
+      <c r="E170" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F154" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <v>7</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C155" s="3">
-        <v>1</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E155" s="1" t="s">
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>0</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" s="3">
         <v>24</v>
       </c>
-      <c r="F155" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <v>7</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C156" s="3">
-        <v>1</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <v>7</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C157" s="3">
-        <v>1</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>7</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" s="3">
-        <v>1</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <v>7</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="3">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F159" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <v>7</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161">
-        <v>7</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" s="3">
-        <v>1</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162">
-        <v>7</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="3">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163">
-        <v>7</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="3">
-        <v>1</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F163" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164">
-        <v>7</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" s="3">
-        <v>1</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <v>7</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="3">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166">
-        <v>7</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" s="3">
-        <v>1</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F166" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167">
-        <v>7</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" s="3">
-        <v>1</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168">
-        <v>7</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" s="3">
-        <v>1</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F168" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169">
-        <v>7</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" s="3">
-        <v>1</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170">
-        <v>0</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C170" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171">
-        <v>8</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E171" s="1"/>
-      <c r="F171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172">
-        <v>8</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C172" s="3">
-        <v>1</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E172" s="1"/>
-      <c r="F172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173">
-        <v>8</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C173" s="3">
-        <v>1</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E173" s="1"/>
-      <c r="F173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174">
-        <v>8</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C174" s="3">
-        <v>1</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E174" s="1"/>
-      <c r="F174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175">
-        <v>8</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C175" s="3">
-        <v>1</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E175" s="1"/>
-      <c r="F175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176">
-        <v>8</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E176" s="1"/>
-      <c r="F176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>8</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C177" s="3">
-        <v>1</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E177" s="1"/>
-      <c r="F177" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>8</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C178" s="3">
         <v>1</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E178" s="1"/>
       <c r="F178" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>8</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C179" s="3">
         <v>1</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>8</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C180" s="3">
         <v>1</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>8</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C181" s="3">
         <v>1</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>8</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C182" s="3">
         <v>1</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>8</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C183" s="3">
         <v>1</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>8</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C184" s="3">
         <v>1</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E184" s="1"/>
       <c r="F184" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>8</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C185" s="3">
         <v>1</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E185" s="1"/>
       <c r="F185" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>8</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C186" s="3">
         <v>1</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>8</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C187" s="3">
         <v>1</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>8</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C188" s="3">
         <v>1</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>8</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C189" s="3">
         <v>1</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E189" s="1"/>
       <c r="F189" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>8</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C190" s="3">
         <v>1</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E190" s="1"/>
       <c r="F190" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>8</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C191" s="3">
         <v>1</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E191" s="1"/>
       <c r="F191" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>8</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C192" s="3">
         <v>1</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E192" s="1"/>
       <c r="F192" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>8</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="C193" s="3">
         <v>1</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E193" s="1"/>
       <c r="F193" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6">
       <c r="A194">
-        <v>0</v>
-      </c>
-      <c r="B194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C194" s="3">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E194" s="1"/>
+      <c r="F194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>8</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C195" s="3">
+        <v>1</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E195" s="1"/>
+      <c r="F195" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>8</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C196" s="3">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E196" s="1"/>
+      <c r="F196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>8</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C197" s="3">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E197" s="1"/>
+      <c r="F197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>8</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C198" s="3">
+        <v>1</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E198" s="1"/>
+      <c r="F198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>8</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C199" s="3">
+        <v>1</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199" s="1"/>
+      <c r="F199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>8</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C200" s="3">
+        <v>1</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E200" s="1"/>
+      <c r="F200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>8</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C201" s="3">
+        <v>1</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E201" s="1"/>
+      <c r="F201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>0</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C194" s="3">
+      <c r="C202" s="3">
         <v>16</v>
       </c>
     </row>

--- a/Experiment/Orders_PILOT/PAR01_RUN08.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\Desktop\3DFaces\Scan Orders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\OneDrive - The University of Western Ontario\3DFaces_MD_2020\Scanning\Task\Scan Orders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{7EB9E6B2-06EA-434B-84FC-9B118E9AA9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD26E346-3FED-47A2-A0A0-9FADFFFC2A4E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4970E5-ED09-4C18-AB7B-C5D339FCDEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12420" windowWidth="29040" windowHeight="15840" xr2:uid="{07BF48E2-6ED9-4E46-8EF2-A48808502AF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07BF48E2-6ED9-4E46-8EF2-A48808502AF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="60">
   <si>
     <t>Trial</t>
   </si>
@@ -205,13 +205,22 @@
   </si>
   <si>
     <t>3D</t>
+  </si>
+  <si>
+    <t>CUE</t>
+  </si>
+  <si>
+    <t>CoverCue.jpg</t>
+  </si>
+  <si>
+    <t>UncoverCue.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,24 +579,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D52182-6637-46A4-90D9-371716FEC978}">
-  <dimension ref="A1:Q202"/>
+  <dimension ref="A1:Q206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -618,7 +627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -645,7 +654,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -672,7 +681,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -699,7 +708,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -726,7 +735,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -753,7 +762,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -780,7 +789,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -807,7 +816,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -834,7 +843,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -861,7 +870,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -888,7 +897,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -915,7 +924,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -942,7 +951,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -969,7 +978,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -996,7 +1005,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1023,7 +1032,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1050,7 +1059,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1077,7 +1086,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1104,7 +1113,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1131,7 +1140,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1158,7 +1167,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1185,7 +1194,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1212,7 +1221,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1239,7 +1248,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1266,7 +1275,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1277,7 +1286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1303,7 +1312,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1329,7 +1338,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1355,7 +1364,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1381,7 +1390,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1407,7 +1416,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1433,7 +1442,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1459,7 +1468,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1485,7 +1494,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1511,7 +1520,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1537,7 +1546,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1563,7 +1572,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1589,7 +1598,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1615,7 +1624,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1641,7 +1650,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1667,7 +1676,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1693,7 +1702,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1719,7 +1728,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1745,7 +1754,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1771,7 +1780,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1797,7 +1806,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1823,7 +1832,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1849,7 +1858,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1875,7 +1884,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1901,35 +1910,38 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="3">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C53" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
-      <c r="A53">
-        <v>3</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -1940,13 +1952,13 @@
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1957,13 +1969,13 @@
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -1974,13 +1986,13 @@
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -1991,13 +2003,13 @@
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2008,13 +2020,13 @@
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2025,13 +2037,13 @@
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2042,13 +2054,13 @@
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -2059,13 +2071,13 @@
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
@@ -2076,13 +2088,13 @@
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3</v>
       </c>
@@ -2093,13 +2105,13 @@
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
@@ -2110,13 +2122,13 @@
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3</v>
       </c>
@@ -2127,13 +2139,13 @@
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3</v>
       </c>
@@ -2144,13 +2156,13 @@
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3</v>
       </c>
@@ -2164,10 +2176,10 @@
         <v>51</v>
       </c>
       <c r="F67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
@@ -2178,13 +2190,13 @@
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3</v>
       </c>
@@ -2195,13 +2207,13 @@
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3</v>
       </c>
@@ -2212,13 +2224,13 @@
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3</v>
       </c>
@@ -2229,13 +2241,13 @@
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3</v>
       </c>
@@ -2246,14 +2258,13 @@
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E72" s="1"/>
+        <v>11</v>
+      </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3</v>
       </c>
@@ -2264,13 +2275,14 @@
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E73" s="1"/>
       <c r="F73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3</v>
       </c>
@@ -2281,13 +2293,13 @@
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3</v>
       </c>
@@ -2298,13 +2310,13 @@
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3</v>
       </c>
@@ -2315,64 +2327,61 @@
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>0</v>
-      </c>
-      <c r="B77" s="1" t="s">
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="3">
+        <v>5</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C79" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>4</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" s="3">
-        <v>1</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>4</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C79" s="3">
-        <v>1</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>4</v>
       </c>
@@ -2383,16 +2392,16 @@
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>4</v>
       </c>
@@ -2403,16 +2412,16 @@
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>4</v>
       </c>
@@ -2423,16 +2432,16 @@
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4</v>
       </c>
@@ -2443,16 +2452,16 @@
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>4</v>
       </c>
@@ -2463,16 +2472,16 @@
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4</v>
       </c>
@@ -2483,16 +2492,16 @@
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4</v>
       </c>
@@ -2503,16 +2512,16 @@
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4</v>
       </c>
@@ -2523,16 +2532,16 @@
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>4</v>
       </c>
@@ -2543,16 +2552,16 @@
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4</v>
       </c>
@@ -2563,16 +2572,16 @@
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>4</v>
       </c>
@@ -2583,16 +2592,16 @@
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4</v>
       </c>
@@ -2603,16 +2612,16 @@
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>4</v>
       </c>
@@ -2623,16 +2632,16 @@
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2643,16 +2652,16 @@
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>4</v>
       </c>
@@ -2663,16 +2672,16 @@
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>4</v>
       </c>
@@ -2683,16 +2692,16 @@
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F95" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>4</v>
       </c>
@@ -2703,16 +2712,16 @@
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>4</v>
       </c>
@@ -2723,16 +2732,16 @@
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>4</v>
       </c>
@@ -2743,16 +2752,16 @@
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>4</v>
       </c>
@@ -2763,16 +2772,16 @@
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>4</v>
       </c>
@@ -2783,16 +2792,16 @@
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2803,67 +2812,67 @@
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>4</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C103" s="3">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>0</v>
-      </c>
-      <c r="B102" s="1" t="s">
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C104" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>5</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C103" s="3">
-        <v>1</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>5</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C104" s="3">
-        <v>1</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>5</v>
       </c>
@@ -2874,16 +2883,16 @@
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>5</v>
       </c>
@@ -2894,16 +2903,16 @@
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>5</v>
       </c>
@@ -2914,16 +2923,16 @@
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5</v>
       </c>
@@ -2934,16 +2943,16 @@
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5</v>
       </c>
@@ -2954,16 +2963,16 @@
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>5</v>
       </c>
@@ -2974,16 +2983,16 @@
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>5</v>
       </c>
@@ -2994,16 +3003,16 @@
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>5</v>
       </c>
@@ -3014,16 +3023,16 @@
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>5</v>
       </c>
@@ -3034,16 +3043,16 @@
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5</v>
       </c>
@@ -3054,16 +3063,16 @@
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5</v>
       </c>
@@ -3074,16 +3083,16 @@
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5</v>
       </c>
@@ -3094,16 +3103,16 @@
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F116" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5</v>
       </c>
@@ -3114,16 +3123,16 @@
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5</v>
       </c>
@@ -3134,16 +3143,16 @@
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F118" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>5</v>
       </c>
@@ -3154,16 +3163,16 @@
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>5</v>
       </c>
@@ -3174,16 +3183,16 @@
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>5</v>
       </c>
@@ -3194,16 +3203,16 @@
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>5</v>
       </c>
@@ -3214,16 +3223,16 @@
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>5</v>
       </c>
@@ -3234,16 +3243,16 @@
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>5</v>
       </c>
@@ -3254,16 +3263,16 @@
         <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>5</v>
       </c>
@@ -3274,16 +3283,16 @@
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>5</v>
       </c>
@@ -3294,67 +3303,67 @@
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>5</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C127" s="3">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C128" s="3">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F126" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>0</v>
-      </c>
-      <c r="B127" s="1" t="s">
+      <c r="F128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C129" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>6</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C128" s="3">
-        <v>1</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F128" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>6</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C129" s="3">
-        <v>1</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F129" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>6</v>
       </c>
@@ -3365,16 +3374,16 @@
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>6</v>
       </c>
@@ -3385,16 +3394,16 @@
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>6</v>
       </c>
@@ -3405,16 +3414,16 @@
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F132" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>6</v>
       </c>
@@ -3425,16 +3434,16 @@
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>6</v>
       </c>
@@ -3445,16 +3454,16 @@
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F134" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>6</v>
       </c>
@@ -3465,16 +3474,16 @@
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>6</v>
       </c>
@@ -3485,16 +3494,16 @@
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>6</v>
       </c>
@@ -3505,16 +3514,16 @@
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>6</v>
       </c>
@@ -3525,16 +3534,16 @@
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>6</v>
       </c>
@@ -3545,16 +3554,16 @@
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>6</v>
       </c>
@@ -3565,16 +3574,16 @@
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>6</v>
       </c>
@@ -3585,16 +3594,16 @@
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>6</v>
       </c>
@@ -3605,16 +3614,16 @@
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>6</v>
       </c>
@@ -3625,16 +3634,16 @@
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>6</v>
       </c>
@@ -3645,16 +3654,16 @@
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>6</v>
       </c>
@@ -3665,16 +3674,16 @@
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>6</v>
       </c>
@@ -3685,16 +3694,16 @@
         <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6</v>
       </c>
@@ -3705,16 +3714,16 @@
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6</v>
       </c>
@@ -3725,16 +3734,16 @@
         <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F148" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>6</v>
       </c>
@@ -3745,16 +3754,16 @@
         <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>6</v>
       </c>
@@ -3765,16 +3774,16 @@
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>6</v>
       </c>
@@ -3785,572 +3794,578 @@
         <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>6</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C152" s="3">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>6</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C153" s="3">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F151" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>0</v>
-      </c>
-      <c r="B152" s="1" t="s">
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>0</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C154" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>7</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153" s="3">
-        <v>1</v>
-      </c>
-      <c r="D153" s="1" t="s">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>7</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="3">
+        <v>1</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E155" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F153" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>7</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C154" s="3">
-        <v>1</v>
-      </c>
-      <c r="D154" s="1" t="s">
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>7</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F154" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>7</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C155" s="3">
-        <v>1</v>
-      </c>
-      <c r="D155" s="1" t="s">
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>7</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F155" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>7</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C156" s="3">
-        <v>1</v>
-      </c>
-      <c r="D156" s="1" t="s">
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>7</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F156" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>7</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C157" s="3">
-        <v>1</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E159" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>7</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" s="3">
-        <v>1</v>
-      </c>
-      <c r="D158" s="1" t="s">
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>7</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="3">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1" t="s">
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>7</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E162" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>7</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" s="3">
-        <v>1</v>
-      </c>
-      <c r="D161" s="1" t="s">
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>7</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="3">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="s">
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E164" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>7</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="3">
-        <v>1</v>
-      </c>
-      <c r="D163" s="1" t="s">
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F163" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>7</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" s="3">
-        <v>1</v>
-      </c>
-      <c r="D164" s="1" t="s">
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>7</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="3">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1" t="s">
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>7</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" s="3">
-        <v>1</v>
-      </c>
-      <c r="D166" s="1" t="s">
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F166" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>7</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" s="3">
-        <v>1</v>
-      </c>
-      <c r="D167" s="1" t="s">
+      <c r="F168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E169" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>7</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" s="3">
-        <v>1</v>
-      </c>
-      <c r="D168" s="1" t="s">
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F168" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>7</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" s="3">
-        <v>1</v>
-      </c>
-      <c r="D169" s="1" t="s">
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>7</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" s="3">
-        <v>1</v>
-      </c>
-      <c r="D170" s="1" t="s">
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F170" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>7</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1</v>
-      </c>
-      <c r="D171" s="1" t="s">
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>7</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C172" s="3">
-        <v>1</v>
-      </c>
-      <c r="D172" s="1" t="s">
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>7</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" s="3">
-        <v>1</v>
-      </c>
-      <c r="D173" s="1" t="s">
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>7</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" s="3">
-        <v>1</v>
-      </c>
-      <c r="D174" s="1" t="s">
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>7</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="3">
-        <v>1</v>
-      </c>
-      <c r="D175" s="1" t="s">
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>7</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>7</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1" t="s">
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>0</v>
-      </c>
-      <c r="B177" s="1" t="s">
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>0</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C179" s="3">
+        <v>5</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C180" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>8</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C178" s="3">
-        <v>1</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E178" s="1"/>
-      <c r="F178" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>8</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C179" s="3">
-        <v>1</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E179" s="1"/>
-      <c r="F179" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>8</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C180" s="3">
-        <v>1</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E180" s="1"/>
-      <c r="F180" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>8</v>
       </c>
@@ -4361,14 +4376,14 @@
         <v>1</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>8</v>
       </c>
@@ -4379,14 +4394,14 @@
         <v>1</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>8</v>
       </c>
@@ -4397,14 +4412,14 @@
         <v>1</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>8</v>
       </c>
@@ -4415,14 +4430,14 @@
         <v>1</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E184" s="1"/>
       <c r="F184" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>8</v>
       </c>
@@ -4433,14 +4448,14 @@
         <v>1</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E185" s="1"/>
       <c r="F185" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>8</v>
       </c>
@@ -4451,14 +4466,14 @@
         <v>1</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>8</v>
       </c>
@@ -4469,14 +4484,14 @@
         <v>1</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>8</v>
       </c>
@@ -4487,14 +4502,14 @@
         <v>1</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>8</v>
       </c>
@@ -4505,14 +4520,14 @@
         <v>1</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E189" s="1"/>
       <c r="F189" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>8</v>
       </c>
@@ -4523,14 +4538,14 @@
         <v>1</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E190" s="1"/>
       <c r="F190" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>8</v>
       </c>
@@ -4541,14 +4556,14 @@
         <v>1</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E191" s="1"/>
       <c r="F191" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>8</v>
       </c>
@@ -4559,14 +4574,14 @@
         <v>1</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E192" s="1"/>
       <c r="F192" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>8</v>
       </c>
@@ -4577,14 +4592,14 @@
         <v>1</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E193" s="1"/>
       <c r="F193" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>8</v>
       </c>
@@ -4595,14 +4610,14 @@
         <v>1</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E194" s="1"/>
       <c r="F194" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>8</v>
       </c>
@@ -4613,14 +4628,14 @@
         <v>1</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E195" s="1"/>
       <c r="F195" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>8</v>
       </c>
@@ -4631,14 +4646,14 @@
         <v>1</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E196" s="1"/>
       <c r="F196" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>8</v>
       </c>
@@ -4649,14 +4664,14 @@
         <v>1</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E197" s="1"/>
       <c r="F197" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>8</v>
       </c>
@@ -4667,14 +4682,14 @@
         <v>1</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E198" s="1"/>
       <c r="F198" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>8</v>
       </c>
@@ -4685,14 +4700,14 @@
         <v>1</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E199" s="1"/>
       <c r="F199" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>8</v>
       </c>
@@ -4703,14 +4718,14 @@
         <v>1</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E200" s="1"/>
       <c r="F200" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>8</v>
       </c>
@@ -4721,21 +4736,95 @@
         <v>1</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E201" s="1"/>
       <c r="F201" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>0</v>
-      </c>
-      <c r="B202" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C202" s="3">
+        <v>1</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202" s="1"/>
+      <c r="F202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>8</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C203" s="3">
+        <v>1</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E203" s="1"/>
+      <c r="F203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>8</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C204" s="3">
+        <v>1</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E204" s="1"/>
+      <c r="F204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>0</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C205" s="3">
+        <v>5</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>0</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C202" s="3">
+      <c r="C206" s="3">
         <v>16</v>
       </c>
     </row>

--- a/Experiment/Orders_PILOT/PAR01_RUN08.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN08.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\OneDrive - The University of Western Ontario\3DFaces_MD_2020\Scanning\Task\Scan Orders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdonnel9\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4970E5-ED09-4C18-AB7B-C5D339FCDEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07BF48E2-6ED9-4E46-8EF2-A48808502AF9}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="60">
   <si>
     <t>Trial</t>
   </si>
@@ -219,7 +218,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -578,25 +577,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D52182-6637-46A4-90D9-371716FEC978}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F175" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="15" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -627,7 +626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -638,10 +637,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -654,7 +653,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -665,10 +664,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -681,7 +680,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -692,10 +691,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -708,7 +707,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -719,10 +718,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -735,7 +734,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -746,10 +745,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -762,7 +761,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -773,10 +772,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -789,7 +788,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -800,10 +799,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -816,7 +815,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -827,10 +826,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -843,7 +842,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -854,10 +853,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -870,7 +869,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -881,10 +880,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -897,7 +896,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -908,10 +907,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -924,7 +923,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -935,10 +934,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -951,7 +950,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -962,10 +961,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -978,7 +977,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -989,10 +988,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1005,7 +1004,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1016,10 +1015,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -1032,7 +1031,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1043,13 +1042,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1059,7 +1058,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1070,10 +1069,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1086,7 +1085,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1097,10 +1096,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1113,7 +1112,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1124,10 +1123,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1140,7 +1139,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1151,13 +1150,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1167,7 +1166,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1178,10 +1177,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1194,7 +1193,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1205,10 +1204,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1221,7 +1220,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1232,10 +1231,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1248,7 +1247,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1259,10 +1258,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1275,7 +1274,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1286,7 +1285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1312,7 +1311,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1338,7 +1337,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1364,7 +1363,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1390,7 +1389,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1416,7 +1415,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1442,7 +1441,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1468,7 +1467,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1494,7 +1493,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1520,7 +1519,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1546,7 +1545,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1572,7 +1571,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1598,7 +1597,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1624,7 +1623,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1650,7 +1649,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1676,7 +1675,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1702,7 +1701,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1728,7 +1727,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1754,7 +1753,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1780,7 +1779,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1806,7 +1805,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1832,7 +1831,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1858,7 +1857,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1884,7 +1883,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1910,7 +1909,7 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -1930,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
@@ -1941,7 +1940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -1952,13 +1951,16 @@
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1969,13 +1971,16 @@
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -1986,13 +1991,16 @@
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2003,13 +2011,16 @@
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2020,13 +2031,16 @@
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2037,13 +2051,16 @@
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2054,13 +2071,16 @@
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -2071,13 +2091,16 @@
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -2088,13 +2111,16 @@
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -2105,13 +2131,16 @@
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -2122,13 +2151,16 @@
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -2139,13 +2171,16 @@
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -2156,13 +2191,16 @@
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -2173,13 +2211,16 @@
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -2190,13 +2231,16 @@
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="F68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -2207,13 +2251,16 @@
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -2224,13 +2271,16 @@
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -2241,13 +2291,16 @@
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -2258,13 +2311,16 @@
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -2275,14 +2331,16 @@
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E73" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -2293,13 +2351,16 @@
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -2310,13 +2371,16 @@
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -2327,13 +2391,16 @@
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -2344,13 +2411,16 @@
         <v>1</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0</v>
       </c>
@@ -2370,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0</v>
       </c>
@@ -2381,7 +2451,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4</v>
       </c>
@@ -2392,16 +2462,16 @@
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
@@ -2412,16 +2482,16 @@
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4</v>
       </c>
@@ -2432,16 +2502,16 @@
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
@@ -2461,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
@@ -2472,16 +2542,16 @@
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4</v>
       </c>
@@ -2501,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -2512,16 +2582,16 @@
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4</v>
       </c>
@@ -2532,16 +2602,16 @@
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4</v>
       </c>
@@ -2552,16 +2622,16 @@
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4</v>
       </c>
@@ -2572,16 +2642,16 @@
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4</v>
       </c>
@@ -2592,16 +2662,16 @@
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
@@ -2621,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
@@ -2632,16 +2702,16 @@
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2652,16 +2722,16 @@
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -2672,16 +2742,16 @@
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -2692,16 +2762,16 @@
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -2712,16 +2782,16 @@
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -2732,16 +2802,16 @@
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F97" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4</v>
       </c>
@@ -2752,16 +2822,16 @@
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -2772,16 +2842,16 @@
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -2792,16 +2862,16 @@
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2812,16 +2882,16 @@
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
@@ -2832,16 +2902,16 @@
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4</v>
       </c>
@@ -2852,16 +2922,16 @@
         <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0</v>
       </c>
@@ -2872,7 +2942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5</v>
       </c>
@@ -2883,16 +2953,16 @@
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5</v>
       </c>
@@ -2903,16 +2973,16 @@
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5</v>
       </c>
@@ -2923,16 +2993,16 @@
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5</v>
       </c>
@@ -2943,16 +3013,16 @@
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5</v>
       </c>
@@ -2963,16 +3033,16 @@
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5</v>
       </c>
@@ -2992,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5</v>
       </c>
@@ -3003,16 +3073,16 @@
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5</v>
       </c>
@@ -3023,16 +3093,16 @@
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5</v>
       </c>
@@ -3043,16 +3113,16 @@
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5</v>
       </c>
@@ -3063,16 +3133,16 @@
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5</v>
       </c>
@@ -3083,16 +3153,16 @@
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5</v>
       </c>
@@ -3103,16 +3173,16 @@
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5</v>
       </c>
@@ -3123,16 +3193,16 @@
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5</v>
       </c>
@@ -3143,16 +3213,16 @@
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F118" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5</v>
       </c>
@@ -3163,16 +3233,16 @@
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5</v>
       </c>
@@ -3183,16 +3253,16 @@
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5</v>
       </c>
@@ -3203,16 +3273,16 @@
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>5</v>
       </c>
@@ -3223,16 +3293,16 @@
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5</v>
       </c>
@@ -3243,16 +3313,16 @@
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5</v>
       </c>
@@ -3272,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
@@ -3283,16 +3353,16 @@
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F125" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5</v>
       </c>
@@ -3312,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5</v>
       </c>
@@ -3323,16 +3393,16 @@
         <v>1</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
@@ -3343,16 +3413,16 @@
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3363,7 +3433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>6</v>
       </c>
@@ -3374,16 +3444,16 @@
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>6</v>
       </c>
@@ -3394,16 +3464,16 @@
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6</v>
       </c>
@@ -3414,16 +3484,16 @@
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6</v>
       </c>
@@ -3434,16 +3504,16 @@
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6</v>
       </c>
@@ -3454,16 +3524,16 @@
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F134" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6</v>
       </c>
@@ -3480,10 +3550,10 @@
         <v>42</v>
       </c>
       <c r="F135" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6</v>
       </c>
@@ -3494,16 +3564,16 @@
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>6</v>
       </c>
@@ -3514,16 +3584,16 @@
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6</v>
       </c>
@@ -3534,16 +3604,16 @@
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>6</v>
       </c>
@@ -3554,16 +3624,16 @@
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6</v>
       </c>
@@ -3574,16 +3644,16 @@
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6</v>
       </c>
@@ -3594,16 +3664,16 @@
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6</v>
       </c>
@@ -3614,16 +3684,16 @@
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>6</v>
       </c>
@@ -3634,16 +3704,16 @@
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>6</v>
       </c>
@@ -3654,16 +3724,16 @@
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>6</v>
       </c>
@@ -3674,16 +3744,16 @@
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>6</v>
       </c>
@@ -3694,16 +3764,16 @@
         <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>6</v>
       </c>
@@ -3714,16 +3784,16 @@
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>6</v>
       </c>
@@ -3734,16 +3804,16 @@
         <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F148" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>6</v>
       </c>
@@ -3754,16 +3824,16 @@
         <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>6</v>
       </c>
@@ -3774,16 +3844,16 @@
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>6</v>
       </c>
@@ -3794,16 +3864,16 @@
         <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>6</v>
       </c>
@@ -3814,16 +3884,16 @@
         <v>1</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>6</v>
       </c>
@@ -3834,16 +3904,16 @@
         <v>1</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F153" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>0</v>
       </c>
@@ -3854,7 +3924,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>7</v>
       </c>
@@ -3865,16 +3935,16 @@
         <v>1</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F155" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>7</v>
       </c>
@@ -3885,16 +3955,16 @@
         <v>1</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F156" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>7</v>
       </c>
@@ -3905,16 +3975,16 @@
         <v>1</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F157" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>7</v>
       </c>
@@ -3925,156 +3995,156 @@
         <v>1</v>
       </c>
       <c r="D158" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <v>7</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="3">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <v>7</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161">
-        <v>7</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" s="3">
-        <v>1</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162">
-        <v>7</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="3">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163">
-        <v>7</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="3">
-        <v>1</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F163" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164">
-        <v>7</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" s="3">
-        <v>1</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <v>7</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="3">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F165" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>7</v>
       </c>
@@ -4085,16 +4155,16 @@
         <v>1</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F166" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>7</v>
       </c>
@@ -4114,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>7</v>
       </c>
@@ -4125,16 +4195,16 @@
         <v>1</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F168" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>7</v>
       </c>
@@ -4145,16 +4215,16 @@
         <v>1</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F169" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7</v>
       </c>
@@ -4165,76 +4235,76 @@
         <v>1</v>
       </c>
       <c r="D170" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F170" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171">
-        <v>7</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172">
-        <v>7</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C172" s="3">
-        <v>1</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173">
-        <v>7</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" s="3">
-        <v>1</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F173" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>7</v>
       </c>
@@ -4245,96 +4315,96 @@
         <v>1</v>
       </c>
       <c r="D174" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>7</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175">
-        <v>7</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="3">
-        <v>1</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176">
-        <v>7</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>7</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177" s="3">
-        <v>1</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F177" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178">
-        <v>7</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178" s="3">
-        <v>1</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F178" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>0</v>
       </c>
@@ -4354,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>0</v>
       </c>
@@ -4365,7 +4435,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>8</v>
       </c>
@@ -4376,14 +4446,16 @@
         <v>1</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E181" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F181" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>8</v>
       </c>
@@ -4394,14 +4466,16 @@
         <v>1</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E182" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F182" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>8</v>
       </c>
@@ -4412,14 +4486,16 @@
         <v>1</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E183" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F183" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>8</v>
       </c>
@@ -4430,14 +4506,16 @@
         <v>1</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E184" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F184" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>8</v>
       </c>
@@ -4448,14 +4526,16 @@
         <v>1</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E185" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F185" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>8</v>
       </c>
@@ -4466,14 +4546,16 @@
         <v>1</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E186" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F186" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>8</v>
       </c>
@@ -4484,14 +4566,16 @@
         <v>1</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E187" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="F187" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>8</v>
       </c>
@@ -4502,14 +4586,16 @@
         <v>1</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E188" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F188" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>8</v>
       </c>
@@ -4520,14 +4606,16 @@
         <v>1</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E189" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F189" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>8</v>
       </c>
@@ -4538,14 +4626,16 @@
         <v>1</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E190" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="F190" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>8</v>
       </c>
@@ -4556,14 +4646,16 @@
         <v>1</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E191" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F191" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>8</v>
       </c>
@@ -4574,14 +4666,16 @@
         <v>1</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E192" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F192" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>8</v>
       </c>
@@ -4592,14 +4686,16 @@
         <v>1</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E193" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F193" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>8</v>
       </c>
@@ -4610,14 +4706,16 @@
         <v>1</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E194" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F194" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>8</v>
       </c>
@@ -4628,14 +4726,16 @@
         <v>1</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E195" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F195" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>8</v>
       </c>
@@ -4646,14 +4746,16 @@
         <v>1</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E196" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F196" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>8</v>
       </c>
@@ -4664,14 +4766,16 @@
         <v>1</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E197" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F197" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>8</v>
       </c>
@@ -4682,14 +4786,16 @@
         <v>1</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E198" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="F198" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>8</v>
       </c>
@@ -4700,14 +4806,16 @@
         <v>1</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E199" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F199" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>8</v>
       </c>
@@ -4718,14 +4826,16 @@
         <v>1</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E200" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F200" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>8</v>
       </c>
@@ -4738,12 +4848,14 @@
       <c r="D201" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E201" s="1"/>
+      <c r="E201" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F201" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>8</v>
       </c>
@@ -4754,14 +4866,16 @@
         <v>1</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E202" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F202" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>8</v>
       </c>
@@ -4772,14 +4886,16 @@
         <v>1</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E203" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F203" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>8</v>
       </c>
@@ -4790,14 +4906,16 @@
         <v>1</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E204" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F204" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>0</v>
       </c>
@@ -4817,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>0</v>
       </c>

--- a/Experiment/Orders_PILOT/PAR01_RUN08.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN08.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24519"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdonnel9\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_7EEB511396477724C6D2FECA778F613890FB3FBC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,167 +60,167 @@
     <t>Pseudo</t>
   </si>
   <si>
+    <t>Face22_R.jpg</t>
+  </si>
+  <si>
+    <t>Face22_L.jpg</t>
+  </si>
+  <si>
     <t>Face7_R.jpg</t>
   </si>
   <si>
     <t>Face7_L.jpg</t>
   </si>
   <si>
+    <t>Face20_R.jpg</t>
+  </si>
+  <si>
+    <t>Face20_L.jpg</t>
+  </si>
+  <si>
+    <t>Face5_R.jpg</t>
+  </si>
+  <si>
+    <t>Face5_L.jpg</t>
+  </si>
+  <si>
+    <t>Face2_R.jpg</t>
+  </si>
+  <si>
+    <t>Face2_L.jpg</t>
+  </si>
+  <si>
+    <t>Face16_R.jpg</t>
+  </si>
+  <si>
+    <t>Face16_L.jpg</t>
+  </si>
+  <si>
+    <t>Face23_R.jpg</t>
+  </si>
+  <si>
+    <t>Face23_L.jpg</t>
+  </si>
+  <si>
+    <t>Face12_R.jpg</t>
+  </si>
+  <si>
+    <t>Face12_L.jpg</t>
+  </si>
+  <si>
+    <t>Face4_R.jpg</t>
+  </si>
+  <si>
+    <t>Face4_L.jpg</t>
+  </si>
+  <si>
+    <t>Face11_R.jpg</t>
+  </si>
+  <si>
+    <t>Face11_L.jpg</t>
+  </si>
+  <si>
+    <t>Face19_R.jpg</t>
+  </si>
+  <si>
+    <t>Face19_L.jpg</t>
+  </si>
+  <si>
+    <t>Face6_R.jpg</t>
+  </si>
+  <si>
+    <t>Face6_L.jpg</t>
+  </si>
+  <si>
+    <t>Face1_R.jpg</t>
+  </si>
+  <si>
+    <t>Face1_L.jpg</t>
+  </si>
+  <si>
+    <t>Face15_R.jpg</t>
+  </si>
+  <si>
+    <t>Face15_L.jpg</t>
+  </si>
+  <si>
+    <t>Face13_R.jpg</t>
+  </si>
+  <si>
+    <t>Face13_L.jpg</t>
+  </si>
+  <si>
+    <t>Face3_R.jpg</t>
+  </si>
+  <si>
+    <t>Face3_L.jpg</t>
+  </si>
+  <si>
+    <t>Face8_R.jpg</t>
+  </si>
+  <si>
+    <t>Face8_L.jpg</t>
+  </si>
+  <si>
+    <t>Face14_R.jpg</t>
+  </si>
+  <si>
+    <t>Face14_L.jpg</t>
+  </si>
+  <si>
+    <t>Face10_R.jpg</t>
+  </si>
+  <si>
+    <t>Face10_L.jpg</t>
+  </si>
+  <si>
+    <t>Face17_R.jpg</t>
+  </si>
+  <si>
+    <t>Face17_L.jpg</t>
+  </si>
+  <si>
+    <t>Face9_R.jpg</t>
+  </si>
+  <si>
+    <t>Face9_L.jpg</t>
+  </si>
+  <si>
     <t>Face21_R.jpg</t>
   </si>
   <si>
     <t>Face21_L.jpg</t>
   </si>
   <si>
-    <t>Face6_R.jpg</t>
-  </si>
-  <si>
-    <t>Face6_L.jpg</t>
-  </si>
-  <si>
-    <t>Face13_R.jpg</t>
-  </si>
-  <si>
-    <t>Face13_L.jpg</t>
-  </si>
-  <si>
-    <t>Face22_R.jpg</t>
-  </si>
-  <si>
-    <t>Face22_L.jpg</t>
-  </si>
-  <si>
-    <t>Face12_R.jpg</t>
-  </si>
-  <si>
-    <t>Face12_L.jpg</t>
-  </si>
-  <si>
     <t>Face18_R.jpg</t>
   </si>
   <si>
     <t>Face18_L.jpg</t>
   </si>
   <si>
-    <t>Face8_R.jpg</t>
-  </si>
-  <si>
-    <t>Face8_L.jpg</t>
-  </si>
-  <si>
-    <t>Face19_R.jpg</t>
-  </si>
-  <si>
-    <t>Face19_L.jpg</t>
-  </si>
-  <si>
-    <t>Face23_R.jpg</t>
-  </si>
-  <si>
-    <t>Face23_L.jpg</t>
-  </si>
-  <si>
-    <t>Face10_R.jpg</t>
-  </si>
-  <si>
-    <t>Face10_L.jpg</t>
-  </si>
-  <si>
-    <t>Face4_R.jpg</t>
-  </si>
-  <si>
-    <t>Face4_L.jpg</t>
-  </si>
-  <si>
-    <t>Face5_R.jpg</t>
-  </si>
-  <si>
-    <t>Face5_L.jpg</t>
-  </si>
-  <si>
-    <t>Face20_R.jpg</t>
-  </si>
-  <si>
-    <t>Face20_L.jpg</t>
-  </si>
-  <si>
-    <t>Face16_R.jpg</t>
-  </si>
-  <si>
-    <t>Face16_L.jpg</t>
-  </si>
-  <si>
-    <t>Face15_R.jpg</t>
-  </si>
-  <si>
-    <t>Face15_L.jpg</t>
-  </si>
-  <si>
-    <t>Face3_R.jpg</t>
-  </si>
-  <si>
-    <t>Face3_L.jpg</t>
-  </si>
-  <si>
-    <t>Face17_R.jpg</t>
-  </si>
-  <si>
-    <t>Face17_L.jpg</t>
-  </si>
-  <si>
-    <t>Face11_R.jpg</t>
-  </si>
-  <si>
-    <t>Face11_L.jpg</t>
-  </si>
-  <si>
-    <t>Face9_R.jpg</t>
-  </si>
-  <si>
-    <t>Face9_L.jpg</t>
-  </si>
-  <si>
-    <t>Face2_R.jpg</t>
-  </si>
-  <si>
-    <t>Face2_L.jpg</t>
-  </si>
-  <si>
-    <t>Face14_R.jpg</t>
-  </si>
-  <si>
-    <t>Face14_L.jpg</t>
-  </si>
-  <si>
-    <t>Face1_R.jpg</t>
-  </si>
-  <si>
-    <t>Face1_L.jpg</t>
-  </si>
-  <si>
     <t>2D</t>
   </si>
   <si>
+    <t>CUE</t>
+  </si>
+  <si>
+    <t>CoverCue.jpg</t>
+  </si>
+  <si>
     <t>MonocL</t>
   </si>
   <si>
+    <t>UncoverCue.jpg</t>
+  </si>
+  <si>
     <t>3D</t>
-  </si>
-  <si>
-    <t>CUE</t>
-  </si>
-  <si>
-    <t>CoverCue.jpg</t>
-  </si>
-  <si>
-    <t>UncoverCue.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,14 +578,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F175" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -595,7 +596,7 @@
     <col min="8" max="15" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>0</v>
       </c>
@@ -626,7 +627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>1</v>
       </c>
@@ -637,10 +638,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -653,7 +654,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>1</v>
       </c>
@@ -664,10 +665,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -680,7 +681,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>1</v>
       </c>
@@ -691,10 +692,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -707,7 +708,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>1</v>
       </c>
@@ -718,10 +719,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -734,7 +735,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>1</v>
       </c>
@@ -745,10 +746,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -761,7 +762,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>1</v>
       </c>
@@ -772,10 +773,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -788,7 +789,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>1</v>
       </c>
@@ -799,10 +800,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -815,7 +816,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>1</v>
       </c>
@@ -826,10 +827,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -842,7 +843,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>1</v>
       </c>
@@ -853,10 +854,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -869,7 +870,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>1</v>
       </c>
@@ -880,10 +881,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -896,7 +897,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>1</v>
       </c>
@@ -907,10 +908,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -923,7 +924,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>1</v>
       </c>
@@ -934,10 +935,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -950,7 +951,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>1</v>
       </c>
@@ -961,10 +962,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -977,7 +978,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>1</v>
       </c>
@@ -988,10 +989,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1004,7 +1005,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1015,10 +1016,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -1031,7 +1032,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1042,10 +1043,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -1058,7 +1059,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1069,10 +1070,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1085,7 +1086,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1096,10 +1097,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1112,7 +1113,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1123,10 +1124,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1139,7 +1140,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1150,10 +1151,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -1166,7 +1167,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1177,10 +1178,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1193,7 +1194,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1204,10 +1205,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1220,7 +1221,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1231,10 +1232,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1247,7 +1248,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1258,10 +1259,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1274,7 +1275,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1296,10 +1297,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1311,7 +1312,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1322,10 +1323,10 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1337,7 +1338,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1348,10 +1349,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
@@ -1363,7 +1364,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1374,10 +1375,10 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -1389,7 +1390,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1400,10 +1401,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1415,7 +1416,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1426,10 +1427,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -1441,7 +1442,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1452,10 +1453,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1467,7 +1468,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1478,10 +1479,10 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -1493,7 +1494,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1504,10 +1505,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -1519,7 +1520,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1530,10 +1531,10 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -1545,7 +1546,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1556,10 +1557,10 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -1571,7 +1572,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1582,10 +1583,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -1597,7 +1598,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1608,10 +1609,10 @@
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -1623,7 +1624,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1634,10 +1635,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -1649,7 +1650,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1660,10 +1661,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -1675,7 +1676,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1686,10 +1687,10 @@
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -1701,7 +1702,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1712,10 +1713,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -1727,7 +1728,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1738,10 +1739,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -1753,7 +1754,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1764,10 +1765,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -1779,7 +1780,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1790,10 +1791,10 @@
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -1805,7 +1806,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1816,10 +1817,10 @@
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -1831,7 +1832,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1842,10 +1843,10 @@
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -1857,7 +1858,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1868,10 +1869,10 @@
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -1883,7 +1884,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1894,10 +1895,10 @@
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -1909,27 +1910,27 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17">
       <c r="A52">
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="3">
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17">
       <c r="A53">
         <v>0</v>
       </c>
@@ -1940,507 +1941,507 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>3</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="A58">
         <v>3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17">
       <c r="A59">
         <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17">
       <c r="A60">
         <v>3</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17">
       <c r="A61">
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17">
       <c r="A62">
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17">
       <c r="A63">
         <v>3</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17">
       <c r="A64">
         <v>3</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>3</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>3</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>3</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>3</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>3</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>3</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>3</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>3</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F76" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>3</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C77" s="3">
-        <v>1</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>0</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C78" s="3">
         <v>5</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>0</v>
       </c>
@@ -2451,487 +2452,487 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>4</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>4</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>4</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>4</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>4</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>4</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>4</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>4</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>4</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>4</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>4</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>4</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>4</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>4</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>4</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>4</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C99" s="3">
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>4</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>4</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>4</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F102" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>4</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C103" s="3">
         <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>0</v>
       </c>
@@ -2942,7 +2943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>5</v>
       </c>
@@ -2953,16 +2954,16 @@
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>5</v>
       </c>
@@ -2973,16 +2974,16 @@
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>5</v>
       </c>
@@ -2993,16 +2994,16 @@
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>5</v>
       </c>
@@ -3013,16 +3014,16 @@
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>5</v>
       </c>
@@ -3033,16 +3034,16 @@
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>5</v>
       </c>
@@ -3053,16 +3054,16 @@
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>5</v>
       </c>
@@ -3073,16 +3074,16 @@
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>5</v>
       </c>
@@ -3093,16 +3094,16 @@
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>5</v>
       </c>
@@ -3113,16 +3114,16 @@
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>5</v>
       </c>
@@ -3133,16 +3134,16 @@
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>5</v>
       </c>
@@ -3153,16 +3154,16 @@
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>5</v>
       </c>
@@ -3173,16 +3174,16 @@
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>5</v>
       </c>
@@ -3193,16 +3194,16 @@
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>5</v>
       </c>
@@ -3213,16 +3214,16 @@
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>5</v>
       </c>
@@ -3233,16 +3234,16 @@
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>5</v>
       </c>
@@ -3253,16 +3254,16 @@
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>5</v>
       </c>
@@ -3273,16 +3274,16 @@
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>5</v>
       </c>
@@ -3293,16 +3294,16 @@
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>5</v>
       </c>
@@ -3313,16 +3314,16 @@
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>5</v>
       </c>
@@ -3333,16 +3334,16 @@
         <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>5</v>
       </c>
@@ -3353,16 +3354,16 @@
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F125" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>5</v>
       </c>
@@ -3373,16 +3374,16 @@
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>5</v>
       </c>
@@ -3393,16 +3394,16 @@
         <v>1</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>5</v>
       </c>
@@ -3413,16 +3414,16 @@
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3433,487 +3434,487 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>6</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C130" s="3">
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>6</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C131" s="3">
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>6</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>6</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>6</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>6</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C135" s="3">
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F135" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>6</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>6</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>6</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>6</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>6</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>6</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>6</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>6</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>6</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C144" s="3">
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>6</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>6</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C146" s="3">
         <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>6</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C147" s="3">
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>6</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C148" s="3">
         <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F148" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>6</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C149" s="3">
         <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>6</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C150" s="3">
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>6</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C151" s="3">
         <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>6</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C152" s="3">
         <v>1</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>6</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C153" s="3">
         <v>1</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F153" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>0</v>
       </c>
@@ -3924,7 +3925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>7</v>
       </c>
@@ -3935,496 +3936,496 @@
         <v>1</v>
       </c>
       <c r="D155" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>7</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>7</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>7</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F155" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>7</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C156" s="3">
-        <v>1</v>
-      </c>
-      <c r="D156" s="1" t="s">
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F156" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>7</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C157" s="3">
-        <v>1</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>7</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>7</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" s="3">
-        <v>1</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>7</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="3">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>7</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>7</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" s="3">
-        <v>1</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>7</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="3">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>7</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="3">
-        <v>1</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F163" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>7</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" s="3">
-        <v>1</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>7</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="3">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>7</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" s="3">
-        <v>1</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F166" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>7</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" s="3">
-        <v>1</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>7</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" s="3">
-        <v>1</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F168" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>7</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" s="3">
-        <v>1</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>7</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" s="3">
-        <v>1</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F170" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>7</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>7</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C172" s="3">
-        <v>1</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>7</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" s="3">
-        <v>1</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>7</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" s="3">
-        <v>1</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>7</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="3">
-        <v>1</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>7</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>7</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177" s="3">
-        <v>1</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F177" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>7</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178" s="3">
-        <v>1</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F178" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C179" s="3">
         <v>5</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F179" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>0</v>
       </c>
@@ -4435,507 +4436,507 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>8</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C181" s="3">
         <v>1</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F181" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>8</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C182" s="3">
         <v>1</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F182" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>8</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C183" s="3">
         <v>1</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F183" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>8</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C184" s="3">
         <v>1</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>8</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C185" s="3">
         <v>1</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F185" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>8</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C186" s="3">
         <v>1</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F186" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>8</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C187" s="3">
         <v>1</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>8</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C188" s="3">
         <v>1</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F188" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>8</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C189" s="3">
         <v>1</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F189" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>8</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C190" s="3">
         <v>1</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F190" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>8</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C191" s="3">
         <v>1</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F191" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>8</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C192" s="3">
         <v>1</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F192" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>8</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C193" s="3">
         <v>1</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F193" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>8</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C194" s="3">
         <v>1</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F194" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>8</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C195" s="3">
         <v>1</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F195" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>8</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C196" s="3">
         <v>1</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F196" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>8</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C197" s="3">
         <v>1</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F197" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>8</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C198" s="3">
         <v>1</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F198" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>8</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C199" s="3">
         <v>1</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F199" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6">
       <c r="A200">
         <v>8</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C200" s="3">
         <v>1</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F200" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6">
       <c r="A201">
         <v>8</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C201" s="3">
         <v>1</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F201" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6">
       <c r="A202">
         <v>8</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C202" s="3">
         <v>1</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F202" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6">
       <c r="A203">
         <v>8</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C203" s="3">
         <v>1</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F203" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6">
       <c r="A204">
         <v>8</v>
       </c>
       <c r="B204" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C204" s="3">
+        <v>1</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205">
+        <v>0</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C204" s="3">
-        <v>1</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F204" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>0</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C205" s="3">
         <v>5</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F205" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6">
       <c r="A206">
         <v>0</v>
       </c>

--- a/Experiment/Orders_PILOT/PAR01_RUN08.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN08.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24519"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdonnel9\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kstubbs5\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_7EEB511396477724C6D2FECA778F613890FB3FBC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,167 +59,167 @@
     <t>Pseudo</t>
   </si>
   <si>
-    <t>Face22_R.jpg</t>
-  </si>
-  <si>
-    <t>Face22_L.jpg</t>
-  </si>
-  <si>
-    <t>Face7_R.jpg</t>
-  </si>
-  <si>
-    <t>Face7_L.jpg</t>
-  </si>
-  <si>
-    <t>Face20_R.jpg</t>
-  </si>
-  <si>
-    <t>Face20_L.jpg</t>
-  </si>
-  <si>
-    <t>Face5_R.jpg</t>
-  </si>
-  <si>
-    <t>Face5_L.jpg</t>
-  </si>
-  <si>
-    <t>Face2_R.jpg</t>
-  </si>
-  <si>
-    <t>Face2_L.jpg</t>
-  </si>
-  <si>
-    <t>Face16_R.jpg</t>
-  </si>
-  <si>
-    <t>Face16_L.jpg</t>
-  </si>
-  <si>
-    <t>Face23_R.jpg</t>
-  </si>
-  <si>
-    <t>Face23_L.jpg</t>
-  </si>
-  <si>
-    <t>Face12_R.jpg</t>
-  </si>
-  <si>
-    <t>Face12_L.jpg</t>
-  </si>
-  <si>
-    <t>Face4_R.jpg</t>
-  </si>
-  <si>
-    <t>Face4_L.jpg</t>
-  </si>
-  <si>
-    <t>Face11_R.jpg</t>
-  </si>
-  <si>
-    <t>Face11_L.jpg</t>
-  </si>
-  <si>
-    <t>Face19_R.jpg</t>
-  </si>
-  <si>
-    <t>Face19_L.jpg</t>
-  </si>
-  <si>
-    <t>Face6_R.jpg</t>
-  </si>
-  <si>
-    <t>Face6_L.jpg</t>
-  </si>
-  <si>
-    <t>Face1_R.jpg</t>
-  </si>
-  <si>
-    <t>Face1_L.jpg</t>
-  </si>
-  <si>
-    <t>Face15_R.jpg</t>
-  </si>
-  <si>
-    <t>Face15_L.jpg</t>
-  </si>
-  <si>
-    <t>Face13_R.jpg</t>
-  </si>
-  <si>
-    <t>Face13_L.jpg</t>
-  </si>
-  <si>
-    <t>Face3_R.jpg</t>
-  </si>
-  <si>
-    <t>Face3_L.jpg</t>
-  </si>
-  <si>
-    <t>Face8_R.jpg</t>
-  </si>
-  <si>
-    <t>Face8_L.jpg</t>
-  </si>
-  <si>
-    <t>Face14_R.jpg</t>
-  </si>
-  <si>
-    <t>Face14_L.jpg</t>
-  </si>
-  <si>
-    <t>Face10_R.jpg</t>
-  </si>
-  <si>
-    <t>Face10_L.jpg</t>
-  </si>
-  <si>
-    <t>Face17_R.jpg</t>
-  </si>
-  <si>
-    <t>Face17_L.jpg</t>
-  </si>
-  <si>
-    <t>Face9_R.jpg</t>
-  </si>
-  <si>
-    <t>Face9_L.jpg</t>
-  </si>
-  <si>
-    <t>Face21_R.jpg</t>
-  </si>
-  <si>
-    <t>Face21_L.jpg</t>
-  </si>
-  <si>
-    <t>Face18_R.jpg</t>
-  </si>
-  <si>
-    <t>Face18_L.jpg</t>
-  </si>
-  <si>
     <t>2D</t>
   </si>
   <si>
     <t>CUE</t>
   </si>
   <si>
-    <t>CoverCue.jpg</t>
-  </si>
-  <si>
     <t>MonocL</t>
   </si>
   <si>
-    <t>UncoverCue.jpg</t>
-  </si>
-  <si>
     <t>3D</t>
+  </si>
+  <si>
+    <t>Face22_R.png</t>
+  </si>
+  <si>
+    <t>Face22_L.png</t>
+  </si>
+  <si>
+    <t>Face7_R.png</t>
+  </si>
+  <si>
+    <t>Face7_L.png</t>
+  </si>
+  <si>
+    <t>Face20_R.png</t>
+  </si>
+  <si>
+    <t>Face20_L.png</t>
+  </si>
+  <si>
+    <t>Face5_R.png</t>
+  </si>
+  <si>
+    <t>Face5_L.png</t>
+  </si>
+  <si>
+    <t>Face2_R.png</t>
+  </si>
+  <si>
+    <t>Face2_L.png</t>
+  </si>
+  <si>
+    <t>Face16_R.png</t>
+  </si>
+  <si>
+    <t>Face16_L.png</t>
+  </si>
+  <si>
+    <t>Face23_R.png</t>
+  </si>
+  <si>
+    <t>Face23_L.png</t>
+  </si>
+  <si>
+    <t>Face12_R.png</t>
+  </si>
+  <si>
+    <t>Face12_L.png</t>
+  </si>
+  <si>
+    <t>Face4_R.png</t>
+  </si>
+  <si>
+    <t>Face4_L.png</t>
+  </si>
+  <si>
+    <t>Face11_R.png</t>
+  </si>
+  <si>
+    <t>Face11_L.png</t>
+  </si>
+  <si>
+    <t>Face19_R.png</t>
+  </si>
+  <si>
+    <t>Face19_L.png</t>
+  </si>
+  <si>
+    <t>Face6_R.png</t>
+  </si>
+  <si>
+    <t>Face6_L.png</t>
+  </si>
+  <si>
+    <t>Face1_R.png</t>
+  </si>
+  <si>
+    <t>Face1_L.png</t>
+  </si>
+  <si>
+    <t>Face15_R.png</t>
+  </si>
+  <si>
+    <t>Face15_L.png</t>
+  </si>
+  <si>
+    <t>Face13_R.png</t>
+  </si>
+  <si>
+    <t>Face13_L.png</t>
+  </si>
+  <si>
+    <t>Face3_R.png</t>
+  </si>
+  <si>
+    <t>Face3_L.png</t>
+  </si>
+  <si>
+    <t>Face8_R.png</t>
+  </si>
+  <si>
+    <t>Face8_L.png</t>
+  </si>
+  <si>
+    <t>Face14_R.png</t>
+  </si>
+  <si>
+    <t>Face14_L.png</t>
+  </si>
+  <si>
+    <t>Face10_R.png</t>
+  </si>
+  <si>
+    <t>Face10_L.png</t>
+  </si>
+  <si>
+    <t>Face17_R.png</t>
+  </si>
+  <si>
+    <t>Face17_L.png</t>
+  </si>
+  <si>
+    <t>Face9_R.png</t>
+  </si>
+  <si>
+    <t>Face9_L.png</t>
+  </si>
+  <si>
+    <t>Face21_R.png</t>
+  </si>
+  <si>
+    <t>Face21_L.png</t>
+  </si>
+  <si>
+    <t>Face18_R.png</t>
+  </si>
+  <si>
+    <t>Face18_L.png</t>
+  </si>
+  <si>
+    <t>CoverCue.png</t>
+  </si>
+  <si>
+    <t>UncoverCue.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,14 +577,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F175" sqref="F1:F1048576"/>
+      <selection sqref="A1:Q206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -596,7 +595,7 @@
     <col min="8" max="15" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -627,7 +626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -638,10 +637,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -654,7 +653,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -665,10 +664,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -681,7 +680,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -692,10 +691,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -708,7 +707,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -719,10 +718,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -735,7 +734,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -746,10 +745,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -762,7 +761,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -773,10 +772,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -789,7 +788,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -800,10 +799,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -816,7 +815,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -827,10 +826,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -843,7 +842,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -854,10 +853,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -870,7 +869,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -881,10 +880,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -897,7 +896,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -908,10 +907,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -924,7 +923,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -935,10 +934,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -951,7 +950,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -962,10 +961,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -978,7 +977,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -989,10 +988,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1005,7 +1004,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1016,10 +1015,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -1032,7 +1031,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1043,10 +1042,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -1059,7 +1058,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1070,10 +1069,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1086,7 +1085,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1097,10 +1096,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1113,7 +1112,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1124,10 +1123,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1140,7 +1139,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1151,10 +1150,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -1167,7 +1166,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1178,10 +1177,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1194,7 +1193,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1205,10 +1204,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1221,7 +1220,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1232,10 +1231,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1248,7 +1247,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1259,10 +1258,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1275,7 +1274,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1286,21 +1285,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1312,21 +1311,21 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1338,21 +1337,21 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
@@ -1364,21 +1363,21 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -1390,21 +1389,21 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1416,21 +1415,21 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -1442,21 +1441,21 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1468,21 +1467,21 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -1494,21 +1493,21 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -1520,21 +1519,21 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -1546,21 +1545,21 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -1572,21 +1571,21 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -1598,21 +1597,21 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -1624,21 +1623,21 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -1650,21 +1649,21 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -1676,21 +1675,21 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -1702,21 +1701,21 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -1728,21 +1727,21 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -1754,21 +1753,21 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -1780,21 +1779,21 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -1806,21 +1805,21 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -1832,21 +1831,21 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -1858,21 +1857,21 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -1884,21 +1883,21 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -1910,27 +1909,27 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C52" s="3">
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
@@ -1941,507 +1940,507 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="3">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E56" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F76" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C77" s="3">
         <v>1</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C78" s="3">
         <v>5</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0</v>
       </c>
@@ -2452,487 +2451,487 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C99" s="3">
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F102" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C103" s="3">
         <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0</v>
       </c>
@@ -2943,487 +2942,487 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C113" s="3">
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C119" s="3">
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C121" s="3">
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>5</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C123" s="3">
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F125" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C127" s="3">
         <v>1</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3434,487 +3433,487 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>6</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C130" s="3">
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>6</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C131" s="3">
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C135" s="3">
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F135" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>6</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>6</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>6</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>6</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C144" s="3">
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>6</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>6</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C146" s="3">
         <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>6</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C147" s="3">
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>6</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C148" s="3">
         <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F148" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>6</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C149" s="3">
         <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>6</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C150" s="3">
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>6</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C151" s="3">
         <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>6</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C152" s="3">
         <v>1</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>6</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C153" s="3">
         <v>1</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F153" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>0</v>
       </c>
@@ -3925,7 +3924,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>7</v>
       </c>
@@ -3936,496 +3935,496 @@
         <v>1</v>
       </c>
       <c r="D155" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>7</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>7</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>7</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F155" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>7</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C156" s="3">
-        <v>1</v>
-      </c>
-      <c r="D156" s="1" t="s">
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F156" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>7</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C157" s="3">
-        <v>1</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>7</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" s="3">
-        <v>1</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>7</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="3">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>7</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>7</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" s="3">
-        <v>1</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>7</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="3">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>7</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="3">
-        <v>1</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F163" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>7</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" s="3">
-        <v>1</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>7</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="3">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>7</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" s="3">
-        <v>1</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F166" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>7</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" s="3">
-        <v>1</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>7</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" s="3">
-        <v>1</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F168" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>7</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" s="3">
-        <v>1</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>7</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" s="3">
-        <v>1</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F170" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>7</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>7</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C172" s="3">
-        <v>1</v>
-      </c>
-      <c r="D172" s="1" t="s">
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>7</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>7</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" s="3">
-        <v>1</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>7</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" s="3">
-        <v>1</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E174" s="1" t="s">
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>0</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>7</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="3">
-        <v>1</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>7</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>7</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177" s="3">
-        <v>1</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F177" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>7</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178" s="3">
-        <v>1</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F178" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>0</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C179" s="3">
         <v>5</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F179" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>0</v>
       </c>
@@ -4436,507 +4435,507 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>8</v>
       </c>
       <c r="B181" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" s="3">
+        <v>1</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>8</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>8</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" s="3">
+        <v>1</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C181" s="3">
-        <v>1</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F181" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>8</v>
-      </c>
-      <c r="B182" s="4" t="s">
+      <c r="E183" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C182" s="3">
-        <v>1</v>
-      </c>
-      <c r="D182" s="1" t="s">
+      <c r="F183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>8</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" s="3">
+        <v>1</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>8</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" s="3">
+        <v>1</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>8</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" s="3">
+        <v>1</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>8</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" s="3">
+        <v>1</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>8</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" s="3">
+        <v>1</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>8</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189" s="3">
+        <v>1</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="E189" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F182" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>8</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C183" s="3">
-        <v>1</v>
-      </c>
-      <c r="D183" s="1" t="s">
+      <c r="F189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>8</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190" s="3">
+        <v>1</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>8</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" s="3">
+        <v>1</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>8</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C192" s="3">
+        <v>1</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>8</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" s="3">
+        <v>1</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>8</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C194" s="3">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>8</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" s="3">
+        <v>1</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>8</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196" s="3">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F196" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>8</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" s="3">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>8</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" s="3">
+        <v>1</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>8</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C199" s="3">
+        <v>1</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>8</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C200" s="3">
+        <v>1</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>8</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201" s="3">
+        <v>1</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>8</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202" s="3">
+        <v>1</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="E202" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F183" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>8</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C184" s="3">
-        <v>1</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F184" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>8</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C185" s="3">
-        <v>1</v>
-      </c>
-      <c r="D185" s="1" t="s">
+      <c r="F202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>8</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" s="3">
+        <v>1</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>8</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204" s="3">
+        <v>1</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>0</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F185" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>8</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C186" s="3">
-        <v>1</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F186" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>8</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C187" s="3">
-        <v>1</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F187" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>8</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C188" s="3">
-        <v>1</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F188" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>8</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C189" s="3">
-        <v>1</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F189" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>8</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C190" s="3">
-        <v>1</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F190" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>8</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C191" s="3">
-        <v>1</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F191" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>8</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C192" s="3">
-        <v>1</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F192" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>8</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C193" s="3">
-        <v>1</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F193" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194">
-        <v>8</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C194" s="3">
-        <v>1</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F194" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195">
-        <v>8</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C195" s="3">
-        <v>1</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F195" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196">
-        <v>8</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C196" s="3">
-        <v>1</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F196" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197">
-        <v>8</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C197" s="3">
-        <v>1</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F197" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198">
-        <v>8</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C198" s="3">
-        <v>1</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F198" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
-        <v>8</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C199" s="3">
-        <v>1</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F199" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200">
-        <v>8</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C200" s="3">
-        <v>1</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F200" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201">
-        <v>8</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C201" s="3">
-        <v>1</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F201" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>8</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C202" s="3">
-        <v>1</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F202" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203">
-        <v>8</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C203" s="3">
-        <v>1</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F203" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204">
-        <v>8</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C204" s="3">
-        <v>1</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F204" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205">
-        <v>0</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C205" s="3">
         <v>5</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F205" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>0</v>
       </c>

--- a/Experiment/Orders_PILOT/PAR01_RUN08.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN08.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24519"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kstubbs5\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdonnel9\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_7EEB511396477724C6D2FECA778F613890FB3FBC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,167 +60,167 @@
     <t>Pseudo</t>
   </si>
   <si>
+    <t>Face22_R.jpg</t>
+  </si>
+  <si>
+    <t>Face22_L.jpg</t>
+  </si>
+  <si>
+    <t>Face7_R.jpg</t>
+  </si>
+  <si>
+    <t>Face7_L.jpg</t>
+  </si>
+  <si>
+    <t>Face20_R.jpg</t>
+  </si>
+  <si>
+    <t>Face20_L.jpg</t>
+  </si>
+  <si>
+    <t>Face5_R.jpg</t>
+  </si>
+  <si>
+    <t>Face5_L.jpg</t>
+  </si>
+  <si>
+    <t>Face2_R.jpg</t>
+  </si>
+  <si>
+    <t>Face2_L.jpg</t>
+  </si>
+  <si>
+    <t>Face16_R.jpg</t>
+  </si>
+  <si>
+    <t>Face16_L.jpg</t>
+  </si>
+  <si>
+    <t>Face23_R.jpg</t>
+  </si>
+  <si>
+    <t>Face23_L.jpg</t>
+  </si>
+  <si>
+    <t>Face12_R.jpg</t>
+  </si>
+  <si>
+    <t>Face12_L.jpg</t>
+  </si>
+  <si>
+    <t>Face4_R.jpg</t>
+  </si>
+  <si>
+    <t>Face4_L.jpg</t>
+  </si>
+  <si>
+    <t>Face11_R.jpg</t>
+  </si>
+  <si>
+    <t>Face11_L.jpg</t>
+  </si>
+  <si>
+    <t>Face19_R.jpg</t>
+  </si>
+  <si>
+    <t>Face19_L.jpg</t>
+  </si>
+  <si>
+    <t>Face6_R.jpg</t>
+  </si>
+  <si>
+    <t>Face6_L.jpg</t>
+  </si>
+  <si>
+    <t>Face1_R.jpg</t>
+  </si>
+  <si>
+    <t>Face1_L.jpg</t>
+  </si>
+  <si>
+    <t>Face15_R.jpg</t>
+  </si>
+  <si>
+    <t>Face15_L.jpg</t>
+  </si>
+  <si>
+    <t>Face13_R.jpg</t>
+  </si>
+  <si>
+    <t>Face13_L.jpg</t>
+  </si>
+  <si>
+    <t>Face3_R.jpg</t>
+  </si>
+  <si>
+    <t>Face3_L.jpg</t>
+  </si>
+  <si>
+    <t>Face8_R.jpg</t>
+  </si>
+  <si>
+    <t>Face8_L.jpg</t>
+  </si>
+  <si>
+    <t>Face14_R.jpg</t>
+  </si>
+  <si>
+    <t>Face14_L.jpg</t>
+  </si>
+  <si>
+    <t>Face10_R.jpg</t>
+  </si>
+  <si>
+    <t>Face10_L.jpg</t>
+  </si>
+  <si>
+    <t>Face17_R.jpg</t>
+  </si>
+  <si>
+    <t>Face17_L.jpg</t>
+  </si>
+  <si>
+    <t>Face9_R.jpg</t>
+  </si>
+  <si>
+    <t>Face9_L.jpg</t>
+  </si>
+  <si>
+    <t>Face21_R.jpg</t>
+  </si>
+  <si>
+    <t>Face21_L.jpg</t>
+  </si>
+  <si>
+    <t>Face18_R.jpg</t>
+  </si>
+  <si>
+    <t>Face18_L.jpg</t>
+  </si>
+  <si>
     <t>2D</t>
   </si>
   <si>
     <t>CUE</t>
   </si>
   <si>
+    <t>CoverCue.jpg</t>
+  </si>
+  <si>
     <t>MonocL</t>
   </si>
   <si>
+    <t>UncoverCue.jpg</t>
+  </si>
+  <si>
     <t>3D</t>
-  </si>
-  <si>
-    <t>Face22_R.png</t>
-  </si>
-  <si>
-    <t>Face22_L.png</t>
-  </si>
-  <si>
-    <t>Face7_R.png</t>
-  </si>
-  <si>
-    <t>Face7_L.png</t>
-  </si>
-  <si>
-    <t>Face20_R.png</t>
-  </si>
-  <si>
-    <t>Face20_L.png</t>
-  </si>
-  <si>
-    <t>Face5_R.png</t>
-  </si>
-  <si>
-    <t>Face5_L.png</t>
-  </si>
-  <si>
-    <t>Face2_R.png</t>
-  </si>
-  <si>
-    <t>Face2_L.png</t>
-  </si>
-  <si>
-    <t>Face16_R.png</t>
-  </si>
-  <si>
-    <t>Face16_L.png</t>
-  </si>
-  <si>
-    <t>Face23_R.png</t>
-  </si>
-  <si>
-    <t>Face23_L.png</t>
-  </si>
-  <si>
-    <t>Face12_R.png</t>
-  </si>
-  <si>
-    <t>Face12_L.png</t>
-  </si>
-  <si>
-    <t>Face4_R.png</t>
-  </si>
-  <si>
-    <t>Face4_L.png</t>
-  </si>
-  <si>
-    <t>Face11_R.png</t>
-  </si>
-  <si>
-    <t>Face11_L.png</t>
-  </si>
-  <si>
-    <t>Face19_R.png</t>
-  </si>
-  <si>
-    <t>Face19_L.png</t>
-  </si>
-  <si>
-    <t>Face6_R.png</t>
-  </si>
-  <si>
-    <t>Face6_L.png</t>
-  </si>
-  <si>
-    <t>Face1_R.png</t>
-  </si>
-  <si>
-    <t>Face1_L.png</t>
-  </si>
-  <si>
-    <t>Face15_R.png</t>
-  </si>
-  <si>
-    <t>Face15_L.png</t>
-  </si>
-  <si>
-    <t>Face13_R.png</t>
-  </si>
-  <si>
-    <t>Face13_L.png</t>
-  </si>
-  <si>
-    <t>Face3_R.png</t>
-  </si>
-  <si>
-    <t>Face3_L.png</t>
-  </si>
-  <si>
-    <t>Face8_R.png</t>
-  </si>
-  <si>
-    <t>Face8_L.png</t>
-  </si>
-  <si>
-    <t>Face14_R.png</t>
-  </si>
-  <si>
-    <t>Face14_L.png</t>
-  </si>
-  <si>
-    <t>Face10_R.png</t>
-  </si>
-  <si>
-    <t>Face10_L.png</t>
-  </si>
-  <si>
-    <t>Face17_R.png</t>
-  </si>
-  <si>
-    <t>Face17_L.png</t>
-  </si>
-  <si>
-    <t>Face9_R.png</t>
-  </si>
-  <si>
-    <t>Face9_L.png</t>
-  </si>
-  <si>
-    <t>Face21_R.png</t>
-  </si>
-  <si>
-    <t>Face21_L.png</t>
-  </si>
-  <si>
-    <t>Face18_R.png</t>
-  </si>
-  <si>
-    <t>Face18_L.png</t>
-  </si>
-  <si>
-    <t>CoverCue.png</t>
-  </si>
-  <si>
-    <t>UncoverCue.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,14 +578,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q206"/>
+      <selection activeCell="F175" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -595,7 +596,7 @@
     <col min="8" max="15" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>0</v>
       </c>
@@ -626,7 +627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>1</v>
       </c>
@@ -637,10 +638,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -653,7 +654,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>1</v>
       </c>
@@ -664,10 +665,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -680,7 +681,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>1</v>
       </c>
@@ -691,10 +692,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -707,7 +708,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>1</v>
       </c>
@@ -718,10 +719,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -734,7 +735,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>1</v>
       </c>
@@ -745,10 +746,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -761,7 +762,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>1</v>
       </c>
@@ -772,10 +773,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -788,7 +789,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>1</v>
       </c>
@@ -799,10 +800,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -815,7 +816,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>1</v>
       </c>
@@ -826,10 +827,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -842,7 +843,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>1</v>
       </c>
@@ -853,10 +854,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -869,7 +870,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>1</v>
       </c>
@@ -880,10 +881,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -896,7 +897,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>1</v>
       </c>
@@ -907,10 +908,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -923,7 +924,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>1</v>
       </c>
@@ -934,10 +935,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -950,7 +951,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>1</v>
       </c>
@@ -961,10 +962,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -977,7 +978,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>1</v>
       </c>
@@ -988,10 +989,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1004,7 +1005,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1015,10 +1016,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -1031,7 +1032,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1042,10 +1043,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -1058,7 +1059,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1069,10 +1070,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1085,7 +1086,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1096,10 +1097,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1112,7 +1113,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1123,10 +1124,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1139,7 +1140,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1150,10 +1151,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -1166,7 +1167,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1177,10 +1178,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1193,7 +1194,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1204,10 +1205,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1220,7 +1221,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1231,10 +1232,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1247,7 +1248,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1258,10 +1259,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1274,7 +1275,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1285,21 +1286,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1311,21 +1312,21 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1337,21 +1338,21 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
@@ -1363,21 +1364,21 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -1389,21 +1390,21 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1415,21 +1416,21 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -1441,21 +1442,21 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1467,21 +1468,21 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -1493,21 +1494,21 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -1519,21 +1520,21 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -1545,21 +1546,21 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -1571,21 +1572,21 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -1597,21 +1598,21 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -1623,21 +1624,21 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -1649,21 +1650,21 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -1675,21 +1676,21 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -1701,21 +1702,21 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -1727,21 +1728,21 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45">
         <v>2</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -1753,21 +1754,21 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46">
         <v>2</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -1779,21 +1780,21 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47">
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -1805,21 +1806,21 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -1831,21 +1832,21 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -1857,21 +1858,21 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17">
       <c r="A50">
         <v>2</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -1883,21 +1884,21 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17">
       <c r="A51">
         <v>2</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -1909,27 +1910,27 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17">
       <c r="A52">
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C52" s="3">
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17">
       <c r="A53">
         <v>0</v>
       </c>
@@ -1940,507 +1941,507 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>3</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="A58">
         <v>3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17">
       <c r="A59">
         <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17">
       <c r="A60">
         <v>3</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17">
       <c r="A61">
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17">
       <c r="A62">
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17">
       <c r="A63">
         <v>3</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17">
       <c r="A64">
         <v>3</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>3</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>3</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>3</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>3</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>3</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>3</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>3</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>3</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F76" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>3</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C77" s="3">
         <v>1</v>
       </c>
       <c r="D77" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>0</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C78" s="3">
         <v>5</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>0</v>
       </c>
@@ -2451,487 +2452,487 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>4</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="3">
-        <v>1</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E80" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>4</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>4</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>4</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>4</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>4</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>4</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>4</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>4</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>4</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>4</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>4</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>4</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>4</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>4</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>4</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C99" s="3">
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>4</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>4</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>4</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F102" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>4</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C103" s="3">
         <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>0</v>
       </c>
@@ -2942,487 +2943,487 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>5</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>5</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>5</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>5</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>5</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>5</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>5</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>5</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C113" s="3">
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>5</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>5</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>5</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>5</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>5</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>5</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C119" s="3">
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>5</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>5</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C121" s="3">
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>5</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>5</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C123" s="3">
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>5</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>5</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F125" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>5</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>5</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C127" s="3">
         <v>1</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>5</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3433,487 +3434,487 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>6</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C130" s="3">
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>6</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C131" s="3">
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>6</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>6</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>6</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>6</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C135" s="3">
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F135" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>6</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>6</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>6</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>6</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>6</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>6</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>6</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>6</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>6</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C144" s="3">
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>6</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>6</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C146" s="3">
         <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>6</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C147" s="3">
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>6</v>
       </c>
       <c r="B148" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C148" s="3">
+        <v>1</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C148" s="3">
-        <v>1</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E148" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F148" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>6</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C149" s="3">
         <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>6</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C150" s="3">
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>6</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C151" s="3">
         <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>6</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C152" s="3">
         <v>1</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>6</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C153" s="3">
         <v>1</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F153" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>0</v>
       </c>
@@ -3924,7 +3925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>7</v>
       </c>
@@ -3935,496 +3936,496 @@
         <v>1</v>
       </c>
       <c r="D155" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>7</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>7</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>7</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F155" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>7</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C156" s="3">
-        <v>1</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E156" s="1" t="s">
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>7</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>0</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F156" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>7</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C157" s="3">
-        <v>1</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>7</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" s="3">
-        <v>1</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>7</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="3">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>7</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>7</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" s="3">
-        <v>1</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>7</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="3">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>7</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="3">
-        <v>1</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F163" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>7</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" s="3">
-        <v>1</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>7</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="3">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>7</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" s="3">
-        <v>1</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F166" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>7</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" s="3">
-        <v>1</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>7</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" s="3">
-        <v>1</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F168" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>7</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" s="3">
-        <v>1</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>7</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" s="3">
-        <v>1</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F170" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>7</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>7</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C172" s="3">
-        <v>1</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>7</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" s="3">
-        <v>1</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>7</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" s="3">
-        <v>1</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>7</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="3">
-        <v>1</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>7</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>7</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177" s="3">
-        <v>1</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F177" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>7</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178" s="3">
-        <v>1</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F178" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>0</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C179" s="3">
         <v>5</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F179" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>0</v>
       </c>
@@ -4435,507 +4436,507 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>8</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C181" s="3">
         <v>1</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F181" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>8</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C182" s="3">
         <v>1</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F182" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>8</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C183" s="3">
         <v>1</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F183" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>8</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C184" s="3">
         <v>1</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>8</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C185" s="3">
         <v>1</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F185" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>8</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C186" s="3">
         <v>1</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F186" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>8</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C187" s="3">
         <v>1</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>8</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C188" s="3">
         <v>1</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F188" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>8</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C189" s="3">
         <v>1</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F189" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>8</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C190" s="3">
         <v>1</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F190" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>8</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C191" s="3">
         <v>1</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F191" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>8</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C192" s="3">
         <v>1</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F192" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>8</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C193" s="3">
         <v>1</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F193" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>8</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C194" s="3">
         <v>1</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F194" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>8</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C195" s="3">
         <v>1</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F195" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>8</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C196" s="3">
         <v>1</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F196" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>8</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C197" s="3">
         <v>1</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F197" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>8</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C198" s="3">
         <v>1</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F198" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>8</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C199" s="3">
         <v>1</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F199" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6">
       <c r="A200">
         <v>8</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C200" s="3">
         <v>1</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F200" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6">
       <c r="A201">
         <v>8</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C201" s="3">
         <v>1</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F201" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6">
       <c r="A202">
         <v>8</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C202" s="3">
         <v>1</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F202" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6">
       <c r="A203">
         <v>8</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C203" s="3">
         <v>1</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F203" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6">
       <c r="A204">
         <v>8</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C204" s="3">
         <v>1</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F204" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6">
       <c r="A205">
         <v>0</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C205" s="3">
         <v>5</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F205" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6">
       <c r="A206">
         <v>0</v>
       </c>

--- a/Experiment/Orders_PILOT/PAR01_RUN08.xlsx
+++ b/Experiment/Orders_PILOT/PAR01_RUN08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24519"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdonnel9\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\AppData\Local\GitHubDesktop\app-2.9.0\fMRI_3DFaces_MD_2021\Experiment\Orders_PILOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_7EEB511396477724C6D2FECA778F613890FB3FBC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81970BFA-B68B-47B9-B605-7ADC426626EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,167 +60,167 @@
     <t>Pseudo</t>
   </si>
   <si>
-    <t>Face22_R.jpg</t>
-  </si>
-  <si>
-    <t>Face22_L.jpg</t>
-  </si>
-  <si>
-    <t>Face7_R.jpg</t>
-  </si>
-  <si>
-    <t>Face7_L.jpg</t>
-  </si>
-  <si>
-    <t>Face20_R.jpg</t>
-  </si>
-  <si>
-    <t>Face20_L.jpg</t>
-  </si>
-  <si>
-    <t>Face5_R.jpg</t>
-  </si>
-  <si>
-    <t>Face5_L.jpg</t>
-  </si>
-  <si>
-    <t>Face2_R.jpg</t>
-  </si>
-  <si>
-    <t>Face2_L.jpg</t>
-  </si>
-  <si>
-    <t>Face16_R.jpg</t>
-  </si>
-  <si>
-    <t>Face16_L.jpg</t>
-  </si>
-  <si>
-    <t>Face23_R.jpg</t>
-  </si>
-  <si>
-    <t>Face23_L.jpg</t>
-  </si>
-  <si>
-    <t>Face12_R.jpg</t>
-  </si>
-  <si>
-    <t>Face12_L.jpg</t>
-  </si>
-  <si>
-    <t>Face4_R.jpg</t>
-  </si>
-  <si>
-    <t>Face4_L.jpg</t>
-  </si>
-  <si>
-    <t>Face11_R.jpg</t>
-  </si>
-  <si>
-    <t>Face11_L.jpg</t>
-  </si>
-  <si>
-    <t>Face19_R.jpg</t>
-  </si>
-  <si>
-    <t>Face19_L.jpg</t>
-  </si>
-  <si>
-    <t>Face6_R.jpg</t>
-  </si>
-  <si>
-    <t>Face6_L.jpg</t>
-  </si>
-  <si>
-    <t>Face1_R.jpg</t>
-  </si>
-  <si>
-    <t>Face1_L.jpg</t>
-  </si>
-  <si>
-    <t>Face15_R.jpg</t>
-  </si>
-  <si>
-    <t>Face15_L.jpg</t>
-  </si>
-  <si>
-    <t>Face13_R.jpg</t>
-  </si>
-  <si>
-    <t>Face13_L.jpg</t>
-  </si>
-  <si>
-    <t>Face3_R.jpg</t>
-  </si>
-  <si>
-    <t>Face3_L.jpg</t>
-  </si>
-  <si>
-    <t>Face8_R.jpg</t>
-  </si>
-  <si>
-    <t>Face8_L.jpg</t>
-  </si>
-  <si>
-    <t>Face14_R.jpg</t>
-  </si>
-  <si>
-    <t>Face14_L.jpg</t>
-  </si>
-  <si>
-    <t>Face10_R.jpg</t>
-  </si>
-  <si>
-    <t>Face10_L.jpg</t>
-  </si>
-  <si>
-    <t>Face17_R.jpg</t>
-  </si>
-  <si>
-    <t>Face17_L.jpg</t>
-  </si>
-  <si>
-    <t>Face9_R.jpg</t>
-  </si>
-  <si>
-    <t>Face9_L.jpg</t>
-  </si>
-  <si>
-    <t>Face21_R.jpg</t>
-  </si>
-  <si>
-    <t>Face21_L.jpg</t>
-  </si>
-  <si>
-    <t>Face18_R.jpg</t>
-  </si>
-  <si>
-    <t>Face18_L.jpg</t>
-  </si>
-  <si>
     <t>2D</t>
   </si>
   <si>
     <t>CUE</t>
   </si>
   <si>
-    <t>CoverCue.jpg</t>
-  </si>
-  <si>
     <t>MonocL</t>
   </si>
   <si>
-    <t>UncoverCue.jpg</t>
-  </si>
-  <si>
     <t>3D</t>
+  </si>
+  <si>
+    <t>Face22_R.png</t>
+  </si>
+  <si>
+    <t>Face22_L.png</t>
+  </si>
+  <si>
+    <t>Face7_R.png</t>
+  </si>
+  <si>
+    <t>Face7_L.png</t>
+  </si>
+  <si>
+    <t>Face20_R.png</t>
+  </si>
+  <si>
+    <t>Face20_L.png</t>
+  </si>
+  <si>
+    <t>Face5_R.png</t>
+  </si>
+  <si>
+    <t>Face5_L.png</t>
+  </si>
+  <si>
+    <t>Face2_R.png</t>
+  </si>
+  <si>
+    <t>Face2_L.png</t>
+  </si>
+  <si>
+    <t>Face16_R.png</t>
+  </si>
+  <si>
+    <t>Face16_L.png</t>
+  </si>
+  <si>
+    <t>Face23_R.png</t>
+  </si>
+  <si>
+    <t>Face23_L.png</t>
+  </si>
+  <si>
+    <t>Face12_R.png</t>
+  </si>
+  <si>
+    <t>Face12_L.png</t>
+  </si>
+  <si>
+    <t>Face4_R.png</t>
+  </si>
+  <si>
+    <t>Face4_L.png</t>
+  </si>
+  <si>
+    <t>Face11_R.png</t>
+  </si>
+  <si>
+    <t>Face11_L.png</t>
+  </si>
+  <si>
+    <t>Face19_R.png</t>
+  </si>
+  <si>
+    <t>Face19_L.png</t>
+  </si>
+  <si>
+    <t>Face6_R.png</t>
+  </si>
+  <si>
+    <t>Face6_L.png</t>
+  </si>
+  <si>
+    <t>Face1_R.png</t>
+  </si>
+  <si>
+    <t>Face1_L.png</t>
+  </si>
+  <si>
+    <t>Face15_R.png</t>
+  </si>
+  <si>
+    <t>Face15_L.png</t>
+  </si>
+  <si>
+    <t>Face13_R.png</t>
+  </si>
+  <si>
+    <t>Face13_L.png</t>
+  </si>
+  <si>
+    <t>Face3_R.png</t>
+  </si>
+  <si>
+    <t>Face3_L.png</t>
+  </si>
+  <si>
+    <t>Face8_R.png</t>
+  </si>
+  <si>
+    <t>Face8_L.png</t>
+  </si>
+  <si>
+    <t>Face14_R.png</t>
+  </si>
+  <si>
+    <t>Face14_L.png</t>
+  </si>
+  <si>
+    <t>Face10_R.png</t>
+  </si>
+  <si>
+    <t>Face10_L.png</t>
+  </si>
+  <si>
+    <t>Face17_R.png</t>
+  </si>
+  <si>
+    <t>Face17_L.png</t>
+  </si>
+  <si>
+    <t>Face9_R.png</t>
+  </si>
+  <si>
+    <t>Face9_L.png</t>
+  </si>
+  <si>
+    <t>Face21_R.png</t>
+  </si>
+  <si>
+    <t>Face21_L.png</t>
+  </si>
+  <si>
+    <t>Face18_R.png</t>
+  </si>
+  <si>
+    <t>Face18_L.png</t>
+  </si>
+  <si>
+    <t>CoverCue.png</t>
+  </si>
+  <si>
+    <t>UncoverCue.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,21 +582,21 @@
   <dimension ref="A1:Q206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F175" sqref="F1:F1048576"/>
+      <selection sqref="A1:Q206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -627,7 +627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -638,10 +638,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -654,7 +654,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -665,10 +665,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -681,7 +681,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -692,10 +692,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -708,7 +708,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -719,10 +719,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -735,7 +735,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -746,10 +746,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -762,7 +762,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -773,10 +773,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -789,7 +789,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -800,10 +800,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -816,7 +816,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -827,10 +827,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -843,7 +843,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -854,10 +854,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -870,7 +870,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -881,10 +881,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -897,7 +897,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -908,10 +908,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -924,7 +924,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -935,10 +935,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -951,7 +951,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -962,10 +962,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -978,7 +978,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -989,10 +989,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1005,7 +1005,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1016,10 +1016,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -1032,7 +1032,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1043,10 +1043,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -1059,7 +1059,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1070,10 +1070,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1086,7 +1086,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1097,10 +1097,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1113,7 +1113,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1124,10 +1124,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1140,7 +1140,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1151,10 +1151,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -1167,7 +1167,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1178,10 +1178,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1194,7 +1194,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1205,10 +1205,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1221,7 +1221,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1232,10 +1232,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1248,7 +1248,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1259,10 +1259,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1275,7 +1275,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1286,21 +1286,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1312,21 +1312,21 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1338,21 +1338,21 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
@@ -1364,21 +1364,21 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -1390,21 +1390,21 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1416,21 +1416,21 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -1442,21 +1442,21 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1468,21 +1468,21 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -1494,21 +1494,21 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -1520,21 +1520,21 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -1546,21 +1546,21 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -1572,21 +1572,21 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -1598,21 +1598,21 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -1624,21 +1624,21 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -1650,21 +1650,21 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -1676,21 +1676,21 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -1702,21 +1702,21 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -1728,21 +1728,21 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -1754,21 +1754,21 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -1780,21 +1780,21 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -1806,21 +1806,21 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -1832,21 +1832,21 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -1858,21 +1858,21 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -1884,21 +1884,21 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -1910,27 +1910,27 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C52" s="3">
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0</v>
       </c>
@@ -1941,507 +1941,507 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="3">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E56" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F76" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>3</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C77" s="3">
         <v>1</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C78" s="3">
         <v>5</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0</v>
       </c>
@@ -2452,487 +2452,487 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>4</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>4</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>4</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>4</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>4</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>4</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>4</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>4</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C93" s="3">
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>4</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>4</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>4</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>4</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C97" s="3">
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>4</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>4</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C99" s="3">
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>4</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>4</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>4</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F102" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>4</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C103" s="3">
         <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>0</v>
       </c>
@@ -2943,487 +2943,487 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>5</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>5</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>5</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C107" s="3">
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>5</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>5</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>5</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>5</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C113" s="3">
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C115" s="3">
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C117" s="3">
         <v>1</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>5</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C119" s="3">
         <v>1</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>5</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>5</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C121" s="3">
         <v>1</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>5</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>5</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C123" s="3">
         <v>1</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>5</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>5</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C125" s="3">
         <v>1</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F125" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>5</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F126" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>5</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C127" s="3">
         <v>1</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F127" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>5</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3434,487 +3434,487 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>6</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C130" s="3">
         <v>1</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>6</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C131" s="3">
         <v>1</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>6</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>6</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C133" s="3">
         <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>6</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>6</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C135" s="3">
         <v>1</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F135" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>6</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>6</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C137" s="3">
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>6</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>6</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C139" s="3">
         <v>1</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>6</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>6</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C141" s="3">
         <v>1</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>6</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>6</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C143" s="3">
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>6</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C144" s="3">
         <v>1</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>6</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C145" s="3">
         <v>1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>6</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C146" s="3">
         <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C147" s="3">
         <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C148" s="3">
         <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F148" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>6</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C149" s="3">
         <v>1</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>6</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C150" s="3">
         <v>1</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>6</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C151" s="3">
         <v>1</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>6</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C152" s="3">
         <v>1</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>6</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C153" s="3">
         <v>1</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F153" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>0</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>7</v>
       </c>
@@ -3936,496 +3936,496 @@
         <v>1</v>
       </c>
       <c r="D155" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>7</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>7</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>7</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F155" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>7</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C156" s="3">
-        <v>1</v>
-      </c>
-      <c r="D156" s="1" t="s">
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F156" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>7</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C157" s="3">
-        <v>1</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>7</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" s="3">
-        <v>1</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>7</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="3">
-        <v>1</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>7</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="3">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>7</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" s="3">
-        <v>1</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>7</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="3">
-        <v>1</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>7</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="3">
-        <v>1</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F163" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>7</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" s="3">
-        <v>1</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>7</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="3">
-        <v>1</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>7</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" s="3">
-        <v>1</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F166" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>7</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" s="3">
-        <v>1</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>7</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" s="3">
-        <v>1</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F168" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>7</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" s="3">
-        <v>1</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>7</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" s="3">
-        <v>1</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F170" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>7</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" s="3">
-        <v>1</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>7</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C172" s="3">
-        <v>1</v>
-      </c>
-      <c r="D172" s="1" t="s">
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>7</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>7</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" s="3">
-        <v>1</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>7</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" s="3">
-        <v>1</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E174" s="1" t="s">
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>0</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>7</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="3">
-        <v>1</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>7</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" s="3">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>7</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177" s="3">
-        <v>1</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F177" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>7</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178" s="3">
-        <v>1</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F178" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>0</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C179" s="3">
         <v>5</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F179" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>0</v>
       </c>
@@ -4436,507 +4436,507 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>8</v>
       </c>
       <c r="B181" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" s="3">
+        <v>1</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>8</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>8</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" s="3">
+        <v>1</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C181" s="3">
-        <v>1</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F181" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>8</v>
-      </c>
-      <c r="B182" s="4" t="s">
+      <c r="E183" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C182" s="3">
-        <v>1</v>
-      </c>
-      <c r="D182" s="1" t="s">
+      <c r="F183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>8</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" s="3">
+        <v>1</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>8</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" s="3">
+        <v>1</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>8</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" s="3">
+        <v>1</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>8</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" s="3">
+        <v>1</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>8</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" s="3">
+        <v>1</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>8</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189" s="3">
+        <v>1</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="E189" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F182" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>8</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C183" s="3">
-        <v>1</v>
-      </c>
-      <c r="D183" s="1" t="s">
+      <c r="F189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>8</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190" s="3">
+        <v>1</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>8</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" s="3">
+        <v>1</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>8</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C192" s="3">
+        <v>1</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>8</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" s="3">
+        <v>1</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>8</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C194" s="3">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>8</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" s="3">
+        <v>1</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>8</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196" s="3">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F196" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>8</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" s="3">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>8</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" s="3">
+        <v>1</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>8</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C199" s="3">
+        <v>1</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>8</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C200" s="3">
+        <v>1</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>8</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201" s="3">
+        <v>1</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>8</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202" s="3">
+        <v>1</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="E202" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F183" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>8</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C184" s="3">
-        <v>1</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F184" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>8</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C185" s="3">
-        <v>1</v>
-      </c>
-      <c r="D185" s="1" t="s">
+      <c r="F202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>8</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" s="3">
+        <v>1</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>8</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204" s="3">
+        <v>1</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>0</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F185" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>8</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C186" s="3">
-        <v>1</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F186" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>8</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C187" s="3">
-        <v>1</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F187" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>8</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C188" s="3">
-        <v>1</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F188" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>8</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C189" s="3">
-        <v>1</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F189" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>8</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C190" s="3">
-        <v>1</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F190" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>8</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C191" s="3">
-        <v>1</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F191" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>8</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C192" s="3">
-        <v>1</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F192" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>8</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C193" s="3">
-        <v>1</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F193" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194">
-        <v>8</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C194" s="3">
-        <v>1</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F194" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195">
-        <v>8</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C195" s="3">
-        <v>1</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F195" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196">
-        <v>8</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C196" s="3">
-        <v>1</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F196" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197">
-        <v>8</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C197" s="3">
-        <v>1</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F197" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198">
-        <v>8</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C198" s="3">
-        <v>1</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F198" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
-        <v>8</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C199" s="3">
-        <v>1</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F199" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200">
-        <v>8</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C200" s="3">
-        <v>1</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F200" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201">
-        <v>8</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C201" s="3">
-        <v>1</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F201" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>8</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C202" s="3">
-        <v>1</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F202" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203">
-        <v>8</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C203" s="3">
-        <v>1</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F203" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204">
-        <v>8</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C204" s="3">
-        <v>1</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F204" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205">
-        <v>0</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C205" s="3">
         <v>5</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F205" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>0</v>
       </c>
